--- a/age_files/年齢別_㈱東京ｲﾝﾃﾘｱ 仙台港本店.xlsx
+++ b/age_files/年齢別_㈱東京ｲﾝﾃﾘｱ 仙台港本店.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Colab Notebooks\pydrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755AE844-4659-4613-8767-9528F2DFF080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03C2305-A4D1-4256-B8D4-53818A8BF04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="7188" yWindow="348" windowWidth="16200" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="貼りつけ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7423" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7580" uniqueCount="1648">
   <si>
     <t>№</t>
   </si>
@@ -13204,10 +13204,6 @@
     <t>山口 睦司 様 3/20</t>
   </si>
   <si>
-    <t>星川</t>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
     <t xml:space="preserve">24003451-1 </t>
   </si>
   <si>
@@ -13244,20 +13240,132 @@
     <t>TW101W OF ﾄﾚﾝﾄBU ｿﾌｧ2P</t>
   </si>
   <si>
-    <t>高橋将博様</t>
+    <t xml:space="preserve">24004464-1 </t>
+  </si>
+  <si>
+    <t>㈱東京ｲﾝﾃﾘｱ 新仙台配送ｾﾝﾀｰ</t>
+  </si>
+  <si>
+    <t>SG210AU WA ﾄﾚﾝﾄBU ｱｰﾑﾁｪｱ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG210AU    WA  TRNBU   </t>
+  </si>
+  <si>
+    <t>174052</t>
+  </si>
+  <si>
+    <t>保科 守 様 12/5</t>
+  </si>
+  <si>
+    <t>岩渕様</t>
     <rPh sb="0" eb="2">
-      <t>タカハシ</t>
+      <t>イワブチ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒロシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
       <t>サマ</t>
     </rPh>
     <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">24004458-1 </t>
+  </si>
+  <si>
+    <t>㈱東京ｲﾝﾃﾘｱ 新仙台センター</t>
+  </si>
+  <si>
+    <t>SD605N WO ｻｲﾄﾞﾃｰﾌﾞﾙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD605N     WO          </t>
+  </si>
+  <si>
+    <t>174101</t>
+  </si>
+  <si>
+    <t>長谷川 正樹 様 11/28</t>
+  </si>
+  <si>
+    <t>三田村様</t>
+    <rPh sb="0" eb="3">
+      <t>ミタムラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t xml:space="preserve">24005674-1 </t>
+  </si>
+  <si>
+    <t>TR13SOR DU ｽﾊﾟｲｽLGR ｿﾌｧ3P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR13SOR    DU  SPLG    </t>
+  </si>
+  <si>
+    <t>174430</t>
+  </si>
+  <si>
+    <t>結城 直也 様 2/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24005674-2 </t>
+  </si>
+  <si>
+    <t>TR13SO用 ｽﾊﾟｲｽLGR 背ｸｯｼｮﾝ(2ヶ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR13SOQ        SPLG    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24005684-1 </t>
+  </si>
+  <si>
+    <t>KX250AB2 BK ｽﾋﾟﾘｯﾄBE ｾﾐｱｰﾑﾁｪｱ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KX250AB2   BK  SP10    </t>
+  </si>
+  <si>
+    <t>関口 様</t>
+  </si>
+  <si>
+    <t>結城 直也 様 2/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24005685-1 </t>
+  </si>
+  <si>
+    <t>HTS2 角丸形角面型 150x90x70 天板DU/脚BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTS2       XX          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24005645-1 </t>
+  </si>
+  <si>
+    <t>FC344WP WO Dﾃｰﾌﾞﾙ(4本脚)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC344WP    WO          </t>
+  </si>
+  <si>
+    <t>174399</t>
+  </si>
+  <si>
+    <t>佐藤 圭祐 様 12/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24005645-2 </t>
+  </si>
+  <si>
+    <t>VZ213B WO ﾁｪｱ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VZ213B     WO          </t>
   </si>
 </sst>
 </file>
@@ -13335,7 +13443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13358,6 +13466,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -13386,7 +13500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -13449,6 +13563,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13666,10 +13783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ837"/>
+  <dimension ref="A1:AZ833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="Q269" sqref="Q269"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="AY385" sqref="AY385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -62691,427 +62808,427 @@
       </c>
     </row>
     <row r="347" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A347" s="22">
+      <c r="A347" s="1">
         <v>4935</v>
       </c>
-      <c r="B347" s="22" t="s">
+      <c r="B347" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="C347" s="22" t="s">
+      <c r="C347" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D347" s="22" t="s">
+      <c r="D347" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E347" s="22" t="s">
+      <c r="E347" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F347" s="22" t="s">
+      <c r="F347" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G347" s="22">
+      <c r="G347" s="1">
         <v>45575</v>
       </c>
-      <c r="H347" s="22">
+      <c r="H347" s="1">
         <v>45582</v>
       </c>
-      <c r="I347" s="22" t="s">
+      <c r="I347" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="J347" s="22" t="s">
+      <c r="J347" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K347" s="22">
+      <c r="K347" s="1">
         <v>2</v>
       </c>
-      <c r="L347" s="22">
-        <v>0</v>
-      </c>
-      <c r="M347" s="22">
+      <c r="L347" s="1">
+        <v>0</v>
+      </c>
+      <c r="M347" s="1">
         <v>2</v>
       </c>
-      <c r="N347" s="22" t="s">
+      <c r="N347" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O347" s="22">
+      <c r="O347" s="1">
         <v>22000</v>
       </c>
-      <c r="P347" s="22">
+      <c r="P347" s="1">
         <v>44000</v>
       </c>
       <c r="Q347" s="2">
         <v>45551</v>
       </c>
-      <c r="R347" s="22" t="s">
+      <c r="R347" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S347" s="22" t="s">
+      <c r="S347" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U347" s="22" t="s">
+      <c r="U347" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V347" s="22" t="s">
+      <c r="V347" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="X347" s="22">
+      <c r="X347" s="1">
         <v>4</v>
       </c>
-      <c r="Y347" s="22" t="s">
+      <c r="Y347" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB347" s="22" t="s">
+      <c r="AB347" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC347" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD347" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE347" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF347" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG347" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH347" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI347" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ347" s="22">
+      <c r="AC347" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD347" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI347" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ347" s="1">
         <v>101</v>
       </c>
-      <c r="AK347" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL347" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM347" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN347" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP347" s="22">
+      <c r="AK347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP347" s="1">
         <v>81</v>
       </c>
-      <c r="AQ347" s="22" t="s">
+      <c r="AQ347" s="1" t="s">
         <v>234</v>
       </c>
       <c r="AR347" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="AS347" s="22" t="s">
+      <c r="AS347" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="AT347" s="22">
+      <c r="AT347" s="1">
         <v>952</v>
       </c>
-      <c r="AU347" s="22" t="s">
+      <c r="AU347" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV347" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW347" s="22" t="s">
+      <c r="AV347" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW347" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX347" s="22">
+      <c r="AX347" s="1">
         <v>13</v>
       </c>
-      <c r="AY347" s="22" t="s">
+      <c r="AY347" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AZ347" s="5"/>
     </row>
     <row r="348" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A348" s="22">
+      <c r="A348" s="1">
         <v>4936</v>
       </c>
-      <c r="B348" s="22" t="s">
+      <c r="B348" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="C348" s="22" t="s">
+      <c r="C348" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D348" s="22" t="s">
+      <c r="D348" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E348" s="22" t="s">
+      <c r="E348" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F348" s="22" t="s">
+      <c r="F348" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G348" s="22">
+      <c r="G348" s="1">
         <v>45575</v>
       </c>
-      <c r="H348" s="22">
+      <c r="H348" s="1">
         <v>45582</v>
       </c>
-      <c r="I348" s="22" t="s">
+      <c r="I348" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="J348" s="22" t="s">
+      <c r="J348" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="K348" s="22">
+      <c r="K348" s="1">
         <v>2</v>
       </c>
-      <c r="L348" s="22">
-        <v>0</v>
-      </c>
-      <c r="M348" s="22">
-        <v>0</v>
-      </c>
-      <c r="N348" s="22" t="s">
+      <c r="L348" s="1">
+        <v>0</v>
+      </c>
+      <c r="M348" s="1">
+        <v>0</v>
+      </c>
+      <c r="N348" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O348" s="22">
+      <c r="O348" s="1">
         <v>16719</v>
       </c>
-      <c r="P348" s="22">
+      <c r="P348" s="1">
         <v>33438</v>
       </c>
       <c r="Q348" s="2">
         <v>45551</v>
       </c>
-      <c r="R348" s="22" t="s">
+      <c r="R348" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S348" s="22" t="s">
+      <c r="S348" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U348" s="22" t="s">
+      <c r="U348" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V348" s="22" t="s">
+      <c r="V348" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="X348" s="22">
+      <c r="X348" s="1">
         <v>4</v>
       </c>
-      <c r="Y348" s="22" t="s">
+      <c r="Y348" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB348" s="22" t="s">
+      <c r="AB348" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC348" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD348" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE348" s="22">
+      <c r="AC348" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD348" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE348" s="1">
         <v>10273</v>
       </c>
-      <c r="AF348" s="22">
+      <c r="AF348" s="1">
         <v>20546</v>
       </c>
-      <c r="AG348" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH348" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI348" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ348" s="22">
+      <c r="AG348" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH348" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI348" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ348" s="1">
         <v>101</v>
       </c>
-      <c r="AK348" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL348" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM348" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN348" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP348" s="22">
+      <c r="AK348" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL348" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM348" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN348" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP348" s="1">
         <v>52</v>
       </c>
-      <c r="AQ348" s="22" t="s">
+      <c r="AQ348" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AR348" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="AS348" s="22" t="s">
+      <c r="AS348" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="AT348" s="22">
+      <c r="AT348" s="1">
         <v>952</v>
       </c>
-      <c r="AU348" s="22" t="s">
+      <c r="AU348" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV348" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW348" s="22" t="s">
+      <c r="AV348" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW348" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX348" s="22">
+      <c r="AX348" s="1">
         <v>13</v>
       </c>
-      <c r="AY348" s="22" t="s">
+      <c r="AY348" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AZ348" s="5"/>
     </row>
     <row r="349" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A349" s="22">
+      <c r="A349" s="1">
         <v>4792</v>
       </c>
-      <c r="B349" s="22" t="s">
+      <c r="B349" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="C349" s="22" t="s">
+      <c r="C349" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D349" s="22" t="s">
+      <c r="D349" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E349" s="22" t="s">
+      <c r="E349" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F349" s="22" t="s">
+      <c r="F349" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G349" s="22">
+      <c r="G349" s="1">
         <v>45565</v>
       </c>
-      <c r="H349" s="22">
+      <c r="H349" s="1">
         <v>45568</v>
       </c>
-      <c r="I349" s="22" t="s">
+      <c r="I349" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="J349" s="22" t="s">
+      <c r="J349" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K349" s="22">
+      <c r="K349" s="1">
         <v>2</v>
       </c>
-      <c r="L349" s="22">
+      <c r="L349" s="1">
         <v>9.6</v>
       </c>
-      <c r="M349" s="22">
-        <v>1</v>
-      </c>
-      <c r="N349" s="22" t="s">
+      <c r="M349" s="1">
+        <v>1</v>
+      </c>
+      <c r="N349" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O349" s="22">
+      <c r="O349" s="1">
         <v>22000</v>
       </c>
-      <c r="P349" s="22">
+      <c r="P349" s="1">
         <v>44000</v>
       </c>
       <c r="Q349" s="2">
         <v>45552</v>
       </c>
-      <c r="R349" s="22" t="s">
+      <c r="R349" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S349" s="22" t="s">
+      <c r="S349" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U349" s="22" t="s">
+      <c r="U349" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V349" s="22" t="s">
+      <c r="V349" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="X349" s="22">
+      <c r="X349" s="1">
         <v>4</v>
       </c>
-      <c r="Y349" s="22" t="s">
+      <c r="Y349" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z349" s="22" t="s">
+      <c r="Z349" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB349" s="22" t="s">
+      <c r="AB349" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC349" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD349" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE349" s="22">
+      <c r="AC349" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD349" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE349" s="1">
         <v>18177</v>
       </c>
-      <c r="AF349" s="22">
+      <c r="AF349" s="1">
         <v>36354</v>
       </c>
-      <c r="AG349" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH349" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI349" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ349" s="22">
+      <c r="AG349" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH349" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI349" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ349" s="1">
         <v>101</v>
       </c>
-      <c r="AK349" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL349" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM349" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN349" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP349" s="22">
+      <c r="AK349" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL349" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM349" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN349" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP349" s="1">
         <v>71</v>
       </c>
-      <c r="AQ349" s="22" t="s">
+      <c r="AQ349" s="1" t="s">
         <v>516</v>
       </c>
       <c r="AR349" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS349" s="22" t="s">
+      <c r="AS349" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="AT349" s="22">
+      <c r="AT349" s="1">
         <v>952</v>
       </c>
-      <c r="AU349" s="22" t="s">
+      <c r="AU349" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV349" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW349" s="22" t="s">
+      <c r="AV349" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW349" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX349" s="22">
+      <c r="AX349" s="1">
         <v>12</v>
       </c>
-      <c r="AY349" s="22" t="s">
+      <c r="AY349" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AZ349" s="4">
@@ -63119,145 +63236,145 @@
       </c>
     </row>
     <row r="350" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A350" s="22">
+      <c r="A350" s="1">
         <v>4793</v>
       </c>
-      <c r="B350" s="22" t="s">
+      <c r="B350" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="C350" s="22" t="s">
+      <c r="C350" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D350" s="22" t="s">
+      <c r="D350" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E350" s="22" t="s">
+      <c r="E350" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F350" s="22" t="s">
+      <c r="F350" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G350" s="22">
+      <c r="G350" s="1">
         <v>45565</v>
       </c>
-      <c r="H350" s="22">
+      <c r="H350" s="1">
         <v>45568</v>
       </c>
-      <c r="I350" s="22" t="s">
+      <c r="I350" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="J350" s="22" t="s">
+      <c r="J350" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K350" s="22">
+      <c r="K350" s="1">
         <v>2</v>
       </c>
-      <c r="L350" s="22">
+      <c r="L350" s="1">
         <v>9.6</v>
       </c>
-      <c r="M350" s="22">
-        <v>1</v>
-      </c>
-      <c r="N350" s="22" t="s">
+      <c r="M350" s="1">
+        <v>1</v>
+      </c>
+      <c r="N350" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O350" s="22">
+      <c r="O350" s="1">
         <v>22000</v>
       </c>
-      <c r="P350" s="22">
+      <c r="P350" s="1">
         <v>44000</v>
       </c>
       <c r="Q350" s="2">
         <v>45552</v>
       </c>
-      <c r="R350" s="22" t="s">
+      <c r="R350" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S350" s="22" t="s">
+      <c r="S350" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U350" s="22" t="s">
+      <c r="U350" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V350" s="22" t="s">
+      <c r="V350" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="X350" s="22">
+      <c r="X350" s="1">
         <v>4</v>
       </c>
-      <c r="Y350" s="22" t="s">
+      <c r="Y350" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z350" s="22" t="s">
+      <c r="Z350" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB350" s="22" t="s">
+      <c r="AB350" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC350" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD350" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE350" s="22">
+      <c r="AC350" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD350" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE350" s="1">
         <v>18177</v>
       </c>
-      <c r="AF350" s="22">
+      <c r="AF350" s="1">
         <v>36354</v>
       </c>
-      <c r="AG350" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH350" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI350" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ350" s="22">
+      <c r="AG350" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH350" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI350" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ350" s="1">
         <v>101</v>
       </c>
-      <c r="AK350" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL350" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM350" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN350" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP350" s="22">
+      <c r="AK350" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL350" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM350" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN350" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP350" s="1">
         <v>71</v>
       </c>
-      <c r="AQ350" s="22" t="s">
+      <c r="AQ350" s="1" t="s">
         <v>516</v>
       </c>
       <c r="AR350" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS350" s="22" t="s">
+      <c r="AS350" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="AT350" s="22">
+      <c r="AT350" s="1">
         <v>952</v>
       </c>
-      <c r="AU350" s="22" t="s">
+      <c r="AU350" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV350" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW350" s="22" t="s">
+      <c r="AV350" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW350" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX350" s="22">
+      <c r="AX350" s="1">
         <v>12</v>
       </c>
-      <c r="AY350" s="22" t="s">
+      <c r="AY350" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AZ350" s="4">
@@ -63265,142 +63382,142 @@
       </c>
     </row>
     <row r="351" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A351" s="22">
+      <c r="A351" s="1">
         <v>5058</v>
       </c>
-      <c r="B351" s="22" t="s">
+      <c r="B351" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="C351" s="22" t="s">
+      <c r="C351" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D351" s="22" t="s">
+      <c r="D351" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E351" s="22" t="s">
+      <c r="E351" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F351" s="22" t="s">
+      <c r="F351" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G351" s="22">
+      <c r="G351" s="1">
         <v>45580</v>
       </c>
-      <c r="H351" s="22">
+      <c r="H351" s="1">
         <v>45583</v>
       </c>
-      <c r="I351" s="22" t="s">
+      <c r="I351" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="J351" s="22" t="s">
+      <c r="J351" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K351" s="22">
-        <v>1</v>
-      </c>
-      <c r="L351" s="22">
+      <c r="K351" s="1">
+        <v>1</v>
+      </c>
+      <c r="L351" s="1">
         <v>8.4</v>
       </c>
-      <c r="M351" s="22">
+      <c r="M351" s="1">
         <v>2</v>
       </c>
-      <c r="N351" s="22" t="s">
+      <c r="N351" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O351" s="22">
+      <c r="O351" s="1">
         <v>88000</v>
       </c>
-      <c r="P351" s="22">
+      <c r="P351" s="1">
         <v>88000</v>
       </c>
       <c r="Q351" s="2">
         <v>45559</v>
       </c>
-      <c r="R351" s="22" t="s">
+      <c r="R351" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S351" s="22" t="s">
+      <c r="S351" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U351" s="22" t="s">
+      <c r="U351" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V351" s="22" t="s">
+      <c r="V351" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="X351" s="22">
+      <c r="X351" s="1">
         <v>4</v>
       </c>
-      <c r="Y351" s="22" t="s">
+      <c r="Y351" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB351" s="22" t="s">
+      <c r="AB351" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC351" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD351" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE351" s="22">
+      <c r="AC351" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD351" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE351" s="1">
         <v>69391</v>
       </c>
-      <c r="AF351" s="22">
+      <c r="AF351" s="1">
         <v>69391</v>
       </c>
-      <c r="AG351" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH351" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI351" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ351" s="22">
+      <c r="AG351" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH351" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI351" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ351" s="1">
         <v>101</v>
       </c>
-      <c r="AK351" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL351" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM351" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN351" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP351" s="22">
+      <c r="AK351" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL351" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM351" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN351" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP351" s="1">
         <v>178</v>
       </c>
-      <c r="AQ351" s="22" t="s">
+      <c r="AQ351" s="1" t="s">
         <v>174</v>
       </c>
       <c r="AR351" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS351" s="22" t="s">
+      <c r="AS351" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="AT351" s="22">
+      <c r="AT351" s="1">
         <v>952</v>
       </c>
-      <c r="AU351" s="22" t="s">
+      <c r="AU351" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV351" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW351" s="22" t="s">
+      <c r="AV351" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW351" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX351" s="22">
+      <c r="AX351" s="1">
         <v>22</v>
       </c>
-      <c r="AY351" s="22" t="s">
+      <c r="AY351" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AZ351" s="4">
@@ -63408,142 +63525,142 @@
       </c>
     </row>
     <row r="352" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A352" s="22">
+      <c r="A352" s="1">
         <v>5059</v>
       </c>
-      <c r="B352" s="22" t="s">
+      <c r="B352" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="C352" s="22" t="s">
+      <c r="C352" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D352" s="22" t="s">
+      <c r="D352" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E352" s="22" t="s">
+      <c r="E352" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F352" s="22" t="s">
+      <c r="F352" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G352" s="22">
+      <c r="G352" s="1">
         <v>45580</v>
       </c>
-      <c r="H352" s="22">
+      <c r="H352" s="1">
         <v>45583</v>
       </c>
-      <c r="I352" s="22" t="s">
+      <c r="I352" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="J352" s="22" t="s">
+      <c r="J352" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="K352" s="22">
-        <v>1</v>
-      </c>
-      <c r="L352" s="22">
+      <c r="K352" s="1">
+        <v>1</v>
+      </c>
+      <c r="L352" s="1">
         <v>5.3</v>
       </c>
-      <c r="M352" s="22">
-        <v>1</v>
-      </c>
-      <c r="N352" s="22" t="s">
+      <c r="M352" s="1">
+        <v>1</v>
+      </c>
+      <c r="N352" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O352" s="22">
+      <c r="O352" s="1">
         <v>29000</v>
       </c>
-      <c r="P352" s="22">
+      <c r="P352" s="1">
         <v>29000</v>
       </c>
       <c r="Q352" s="2">
         <v>45559</v>
       </c>
-      <c r="R352" s="22" t="s">
+      <c r="R352" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S352" s="22" t="s">
+      <c r="S352" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U352" s="22" t="s">
+      <c r="U352" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V352" s="22" t="s">
+      <c r="V352" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="X352" s="22">
+      <c r="X352" s="1">
         <v>4</v>
       </c>
-      <c r="Y352" s="22" t="s">
+      <c r="Y352" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB352" s="22" t="s">
+      <c r="AB352" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC352" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD352" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE352" s="22">
+      <c r="AC352" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD352" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE352" s="1">
         <v>18287</v>
       </c>
-      <c r="AF352" s="22">
+      <c r="AF352" s="1">
         <v>18287</v>
       </c>
-      <c r="AG352" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH352" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI352" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ352" s="22">
+      <c r="AG352" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH352" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI352" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ352" s="1">
         <v>101</v>
       </c>
-      <c r="AK352" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL352" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM352" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN352" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP352" s="22">
+      <c r="AK352" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL352" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM352" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN352" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP352" s="1">
         <v>56</v>
       </c>
-      <c r="AQ352" s="22" t="s">
+      <c r="AQ352" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="AR352" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS352" s="22" t="s">
+      <c r="AS352" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="AT352" s="22">
+      <c r="AT352" s="1">
         <v>952</v>
       </c>
-      <c r="AU352" s="22" t="s">
+      <c r="AU352" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV352" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW352" s="22" t="s">
+      <c r="AV352" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW352" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX352" s="22">
+      <c r="AX352" s="1">
         <v>12</v>
       </c>
-      <c r="AY352" s="22" t="s">
+      <c r="AY352" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AZ352" s="4">
@@ -63551,142 +63668,142 @@
       </c>
     </row>
     <row r="353" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A353" s="22">
+      <c r="A353" s="1">
         <v>5060</v>
       </c>
-      <c r="B353" s="22" t="s">
+      <c r="B353" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="C353" s="22" t="s">
+      <c r="C353" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D353" s="22" t="s">
+      <c r="D353" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E353" s="22" t="s">
+      <c r="E353" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F353" s="22" t="s">
+      <c r="F353" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G353" s="22">
+      <c r="G353" s="1">
         <v>45580</v>
       </c>
-      <c r="H353" s="22">
+      <c r="H353" s="1">
         <v>45583</v>
       </c>
-      <c r="I353" s="22" t="s">
+      <c r="I353" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="J353" s="22" t="s">
+      <c r="J353" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="K353" s="22">
-        <v>1</v>
-      </c>
-      <c r="L353" s="22">
+      <c r="K353" s="1">
+        <v>1</v>
+      </c>
+      <c r="L353" s="1">
         <v>7.1</v>
       </c>
-      <c r="M353" s="22">
-        <v>1</v>
-      </c>
-      <c r="N353" s="22" t="s">
+      <c r="M353" s="1">
+        <v>1</v>
+      </c>
+      <c r="N353" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O353" s="22">
+      <c r="O353" s="1">
         <v>33000</v>
       </c>
-      <c r="P353" s="22">
+      <c r="P353" s="1">
         <v>33000</v>
       </c>
       <c r="Q353" s="2">
         <v>45559</v>
       </c>
-      <c r="R353" s="22" t="s">
+      <c r="R353" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S353" s="22" t="s">
+      <c r="S353" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U353" s="22" t="s">
+      <c r="U353" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V353" s="22" t="s">
+      <c r="V353" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="X353" s="22">
+      <c r="X353" s="1">
         <v>4</v>
       </c>
-      <c r="Y353" s="22" t="s">
+      <c r="Y353" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB353" s="22" t="s">
+      <c r="AB353" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC353" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD353" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE353" s="22">
+      <c r="AC353" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD353" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE353" s="1">
         <v>24967</v>
       </c>
-      <c r="AF353" s="22">
+      <c r="AF353" s="1">
         <v>24967</v>
       </c>
-      <c r="AG353" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH353" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI353" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ353" s="22">
+      <c r="AG353" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH353" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI353" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ353" s="1">
         <v>101</v>
       </c>
-      <c r="AK353" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL353" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM353" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN353" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP353" s="22">
+      <c r="AK353" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL353" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM353" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN353" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP353" s="1">
         <v>170</v>
       </c>
-      <c r="AQ353" s="22" t="s">
+      <c r="AQ353" s="1" t="s">
         <v>284</v>
       </c>
       <c r="AR353" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS353" s="22" t="s">
+      <c r="AS353" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="AT353" s="22">
+      <c r="AT353" s="1">
         <v>952</v>
       </c>
-      <c r="AU353" s="22" t="s">
+      <c r="AU353" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV353" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW353" s="22" t="s">
+      <c r="AV353" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW353" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX353" s="22">
+      <c r="AX353" s="1">
         <v>12</v>
       </c>
-      <c r="AY353" s="22" t="s">
+      <c r="AY353" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AZ353" s="4">
@@ -63694,142 +63811,142 @@
       </c>
     </row>
     <row r="354" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A354" s="22">
+      <c r="A354" s="1">
         <v>5022</v>
       </c>
-      <c r="B354" s="22" t="s">
+      <c r="B354" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="C354" s="22" t="s">
+      <c r="C354" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D354" s="22" t="s">
+      <c r="D354" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E354" s="22" t="s">
+      <c r="E354" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F354" s="22" t="s">
+      <c r="F354" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G354" s="22">
+      <c r="G354" s="1">
         <v>45574</v>
       </c>
-      <c r="H354" s="22">
+      <c r="H354" s="1">
         <v>45580</v>
       </c>
-      <c r="I354" s="22" t="s">
+      <c r="I354" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="J354" s="22" t="s">
+      <c r="J354" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="K354" s="22">
-        <v>1</v>
-      </c>
-      <c r="L354" s="22">
+      <c r="K354" s="1">
+        <v>1</v>
+      </c>
+      <c r="L354" s="1">
         <v>29.5</v>
       </c>
-      <c r="M354" s="22">
-        <v>1</v>
-      </c>
-      <c r="N354" s="22" t="s">
+      <c r="M354" s="1">
+        <v>1</v>
+      </c>
+      <c r="N354" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O354" s="22">
+      <c r="O354" s="1">
         <v>93940</v>
       </c>
-      <c r="P354" s="22">
+      <c r="P354" s="1">
         <v>93940</v>
       </c>
       <c r="Q354" s="2">
         <v>45559</v>
       </c>
-      <c r="R354" s="22" t="s">
+      <c r="R354" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S354" s="22" t="s">
+      <c r="S354" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U354" s="22" t="s">
+      <c r="U354" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V354" s="22" t="s">
+      <c r="V354" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="X354" s="22">
+      <c r="X354" s="1">
         <v>4</v>
       </c>
-      <c r="Y354" s="22" t="s">
+      <c r="Y354" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB354" s="22" t="s">
+      <c r="AB354" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC354" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD354" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE354" s="22">
+      <c r="AC354" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD354" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE354" s="1">
         <v>62419</v>
       </c>
-      <c r="AF354" s="22">
+      <c r="AF354" s="1">
         <v>62419</v>
       </c>
-      <c r="AG354" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH354" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI354" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ354" s="22">
+      <c r="AG354" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH354" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI354" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ354" s="1">
         <v>101</v>
       </c>
-      <c r="AK354" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL354" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM354" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN354" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP354" s="22">
+      <c r="AK354" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL354" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM354" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN354" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP354" s="1">
         <v>192</v>
       </c>
-      <c r="AQ354" s="22" t="s">
+      <c r="AQ354" s="1" t="s">
         <v>537</v>
       </c>
       <c r="AR354" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS354" s="22" t="s">
+      <c r="AS354" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="AT354" s="22">
+      <c r="AT354" s="1">
         <v>952</v>
       </c>
-      <c r="AU354" s="22" t="s">
+      <c r="AU354" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV354" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW354" s="22" t="s">
+      <c r="AV354" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW354" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX354" s="22">
+      <c r="AX354" s="1">
         <v>11</v>
       </c>
-      <c r="AY354" s="22" t="s">
+      <c r="AY354" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AZ354" s="4">
@@ -63837,142 +63954,142 @@
       </c>
     </row>
     <row r="355" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A355" s="22">
+      <c r="A355" s="1">
         <v>5023</v>
       </c>
-      <c r="B355" s="22" t="s">
+      <c r="B355" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="C355" s="22" t="s">
+      <c r="C355" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D355" s="22" t="s">
+      <c r="D355" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E355" s="22" t="s">
+      <c r="E355" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F355" s="22" t="s">
+      <c r="F355" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G355" s="22">
+      <c r="G355" s="1">
         <v>45574</v>
       </c>
-      <c r="H355" s="22">
+      <c r="H355" s="1">
         <v>45580</v>
       </c>
-      <c r="I355" s="22" t="s">
+      <c r="I355" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="J355" s="22" t="s">
+      <c r="J355" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="K355" s="22">
-        <v>1</v>
-      </c>
-      <c r="L355" s="22">
-        <v>0</v>
-      </c>
-      <c r="M355" s="22">
-        <v>0</v>
-      </c>
-      <c r="N355" s="22" t="s">
+      <c r="K355" s="1">
+        <v>1</v>
+      </c>
+      <c r="L355" s="1">
+        <v>0</v>
+      </c>
+      <c r="M355" s="1">
+        <v>0</v>
+      </c>
+      <c r="N355" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O355" s="22">
+      <c r="O355" s="1">
         <v>16719</v>
       </c>
-      <c r="P355" s="22">
+      <c r="P355" s="1">
         <v>16719</v>
       </c>
       <c r="Q355" s="2">
         <v>45559</v>
       </c>
-      <c r="R355" s="22" t="s">
+      <c r="R355" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S355" s="22" t="s">
+      <c r="S355" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U355" s="22" t="s">
+      <c r="U355" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V355" s="22" t="s">
+      <c r="V355" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="X355" s="22">
+      <c r="X355" s="1">
         <v>4</v>
       </c>
-      <c r="Y355" s="22" t="s">
+      <c r="Y355" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB355" s="22" t="s">
+      <c r="AB355" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC355" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD355" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE355" s="22">
+      <c r="AC355" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD355" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE355" s="1">
         <v>10273</v>
       </c>
-      <c r="AF355" s="22">
+      <c r="AF355" s="1">
         <v>10273</v>
       </c>
-      <c r="AG355" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH355" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI355" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ355" s="22">
+      <c r="AG355" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH355" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI355" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ355" s="1">
         <v>101</v>
       </c>
-      <c r="AK355" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL355" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM355" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN355" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP355" s="22">
+      <c r="AK355" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL355" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM355" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN355" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP355" s="1">
         <v>52</v>
       </c>
-      <c r="AQ355" s="22" t="s">
+      <c r="AQ355" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AR355" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS355" s="22" t="s">
+      <c r="AS355" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="AT355" s="22">
+      <c r="AT355" s="1">
         <v>952</v>
       </c>
-      <c r="AU355" s="22" t="s">
+      <c r="AU355" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV355" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW355" s="22" t="s">
+      <c r="AV355" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW355" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX355" s="22">
+      <c r="AX355" s="1">
         <v>13</v>
       </c>
-      <c r="AY355" s="22" t="s">
+      <c r="AY355" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AZ355" s="4">
@@ -63980,142 +64097,142 @@
       </c>
     </row>
     <row r="356" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A356" s="22">
+      <c r="A356" s="1">
         <v>5024</v>
       </c>
-      <c r="B356" s="22" t="s">
+      <c r="B356" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="C356" s="22" t="s">
+      <c r="C356" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D356" s="22" t="s">
+      <c r="D356" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E356" s="22" t="s">
+      <c r="E356" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F356" s="22" t="s">
+      <c r="F356" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G356" s="22">
+      <c r="G356" s="1">
         <v>45574</v>
       </c>
-      <c r="H356" s="22">
+      <c r="H356" s="1">
         <v>45580</v>
       </c>
-      <c r="I356" s="22" t="s">
+      <c r="I356" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="J356" s="22" t="s">
+      <c r="J356" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="K356" s="22">
-        <v>1</v>
-      </c>
-      <c r="L356" s="22">
+      <c r="K356" s="1">
+        <v>1</v>
+      </c>
+      <c r="L356" s="1">
         <v>3.4</v>
       </c>
-      <c r="M356" s="22">
+      <c r="M356" s="1">
         <v>2</v>
       </c>
-      <c r="N356" s="22" t="s">
+      <c r="N356" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O356" s="22">
+      <c r="O356" s="1">
         <v>37400</v>
       </c>
-      <c r="P356" s="22">
+      <c r="P356" s="1">
         <v>37400</v>
       </c>
       <c r="Q356" s="2">
         <v>45559</v>
       </c>
-      <c r="R356" s="22" t="s">
+      <c r="R356" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S356" s="22" t="s">
+      <c r="S356" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U356" s="22" t="s">
+      <c r="U356" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V356" s="22" t="s">
+      <c r="V356" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="X356" s="22">
+      <c r="X356" s="1">
         <v>4</v>
       </c>
-      <c r="Y356" s="22" t="s">
+      <c r="Y356" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB356" s="22" t="s">
+      <c r="AB356" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC356" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD356" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE356" s="22">
+      <c r="AC356" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD356" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE356" s="1">
         <v>35608</v>
       </c>
-      <c r="AF356" s="22">
+      <c r="AF356" s="1">
         <v>35608</v>
       </c>
-      <c r="AG356" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH356" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI356" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ356" s="22">
+      <c r="AG356" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH356" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI356" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ356" s="1">
         <v>101</v>
       </c>
-      <c r="AK356" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL356" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM356" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN356" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP356" s="22">
+      <c r="AK356" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL356" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM356" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN356" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP356" s="1">
         <v>52</v>
       </c>
-      <c r="AQ356" s="22" t="s">
+      <c r="AQ356" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AR356" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AS356" s="22" t="s">
+      <c r="AS356" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="AT356" s="22">
+      <c r="AT356" s="1">
         <v>952</v>
       </c>
-      <c r="AU356" s="22" t="s">
+      <c r="AU356" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV356" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW356" s="22" t="s">
+      <c r="AV356" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW356" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX356" s="22">
+      <c r="AX356" s="1">
         <v>21</v>
       </c>
-      <c r="AY356" s="22" t="s">
+      <c r="AY356" s="1" t="s">
         <v>161</v>
       </c>
       <c r="AZ356" s="4">
@@ -64123,1151 +64240,1153 @@
       </c>
     </row>
     <row r="357" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A357" s="22">
+      <c r="A357" s="1">
         <v>91</v>
       </c>
-      <c r="B357" s="22" t="s">
+      <c r="B357" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="C357" s="22" t="s">
+      <c r="C357" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D357" s="22" t="s">
+      <c r="D357" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E357" s="22" t="s">
+      <c r="E357" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F357" s="22" t="s">
+      <c r="F357" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G357" s="22">
+      <c r="G357" s="1">
         <v>45595</v>
       </c>
-      <c r="H357" s="22">
+      <c r="H357" s="1">
         <v>45601</v>
       </c>
-      <c r="I357" s="22" t="s">
+      <c r="I357" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="J357" s="22" t="s">
+      <c r="J357" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K357" s="22">
-        <v>1</v>
-      </c>
-      <c r="L357" s="22">
-        <v>0</v>
-      </c>
-      <c r="M357" s="22">
-        <v>0</v>
-      </c>
-      <c r="N357" s="22" t="s">
+      <c r="K357" s="1">
+        <v>1</v>
+      </c>
+      <c r="L357" s="1">
+        <v>0</v>
+      </c>
+      <c r="M357" s="1">
+        <v>0</v>
+      </c>
+      <c r="N357" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O357" s="22">
+      <c r="O357" s="1">
         <v>22000</v>
       </c>
-      <c r="P357" s="22">
+      <c r="P357" s="1">
         <v>22000</v>
       </c>
       <c r="Q357" s="2">
         <v>45572</v>
       </c>
-      <c r="R357" s="22" t="s">
+      <c r="R357" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S357" s="22" t="s">
+      <c r="S357" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U357" s="22" t="s">
+      <c r="U357" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V357" s="22" t="s">
+      <c r="V357" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="X357" s="22">
+      <c r="X357" s="1">
         <v>4</v>
       </c>
-      <c r="Y357" s="22" t="s">
+      <c r="Y357" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z357" s="22" t="s">
+      <c r="Z357" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB357" s="22" t="s">
+      <c r="AB357" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC357" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD357" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE357" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF357" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG357" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH357" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI357" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ357" s="22">
+      <c r="AC357" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD357" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE357" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF357" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG357" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH357" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI357" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ357" s="1">
         <v>101</v>
       </c>
-      <c r="AK357" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL357" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM357" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN357" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP357" s="22">
+      <c r="AK357" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL357" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM357" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN357" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP357" s="1">
         <v>81</v>
       </c>
-      <c r="AQ357" s="22" t="s">
+      <c r="AQ357" s="1" t="s">
         <v>234</v>
       </c>
       <c r="AR357" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AS357" s="22" t="s">
+      <c r="AS357" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="AT357" s="22">
+      <c r="AT357" s="1">
         <v>952</v>
       </c>
-      <c r="AU357" s="22" t="s">
+      <c r="AU357" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV357" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW357" s="22" t="s">
+      <c r="AV357" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW357" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX357" s="22">
+      <c r="AX357" s="1">
         <v>13</v>
       </c>
-      <c r="AY357" s="22" t="s">
+      <c r="AY357" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AZ357" s="5"/>
+      <c r="AZ357" s="23"/>
     </row>
     <row r="358" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A358" s="22">
+      <c r="A358" s="1">
         <v>92</v>
       </c>
-      <c r="B358" s="22" t="s">
+      <c r="B358" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="C358" s="22" t="s">
+      <c r="C358" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D358" s="22" t="s">
+      <c r="D358" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E358" s="22" t="s">
+      <c r="E358" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F358" s="22" t="s">
+      <c r="F358" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G358" s="22">
+      <c r="G358" s="1">
         <v>45595</v>
       </c>
-      <c r="H358" s="22">
+      <c r="H358" s="1">
         <v>45601</v>
       </c>
-      <c r="I358" s="22" t="s">
+      <c r="I358" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="J358" s="22" t="s">
+      <c r="J358" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K358" s="22">
-        <v>1</v>
-      </c>
-      <c r="L358" s="22">
+      <c r="K358" s="1">
+        <v>1</v>
+      </c>
+      <c r="L358" s="1">
         <v>15</v>
       </c>
-      <c r="M358" s="22">
-        <v>1</v>
-      </c>
-      <c r="N358" s="22" t="s">
+      <c r="M358" s="1">
+        <v>1</v>
+      </c>
+      <c r="N358" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O358" s="22">
+      <c r="O358" s="1">
         <v>24091</v>
       </c>
-      <c r="P358" s="22">
+      <c r="P358" s="1">
         <v>24091</v>
       </c>
       <c r="Q358" s="2">
         <v>45572</v>
       </c>
-      <c r="R358" s="22" t="s">
+      <c r="R358" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S358" s="22" t="s">
+      <c r="S358" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U358" s="22" t="s">
+      <c r="U358" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V358" s="22" t="s">
+      <c r="V358" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="X358" s="22">
+      <c r="X358" s="1">
         <v>4</v>
       </c>
-      <c r="Y358" s="22" t="s">
+      <c r="Y358" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z358" s="22" t="s">
+      <c r="Z358" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB358" s="22" t="s">
+      <c r="AB358" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC358" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD358" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE358" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF358" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG358" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH358" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI358" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ358" s="22">
+      <c r="AC358" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD358" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE358" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF358" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI358" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ358" s="1">
         <v>101</v>
       </c>
-      <c r="AK358" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL358" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM358" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN358" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP358" s="22">
+      <c r="AK358" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL358" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM358" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN358" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP358" s="1">
         <v>81</v>
       </c>
-      <c r="AQ358" s="22" t="s">
+      <c r="AQ358" s="1" t="s">
         <v>234</v>
       </c>
       <c r="AR358" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AS358" s="22" t="s">
+      <c r="AS358" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="AT358" s="22">
+      <c r="AT358" s="1">
         <v>952</v>
       </c>
-      <c r="AU358" s="22" t="s">
+      <c r="AU358" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV358" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW358" s="22" t="s">
+      <c r="AV358" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW358" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX358" s="22">
+      <c r="AX358" s="1">
         <v>13</v>
       </c>
-      <c r="AY358" s="22" t="s">
+      <c r="AY358" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AZ358" s="5"/>
+      <c r="AZ358" s="23"/>
     </row>
     <row r="359" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A359" s="22">
+      <c r="A359" s="1">
         <v>93</v>
       </c>
-      <c r="B359" s="22" t="s">
+      <c r="B359" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="C359" s="22" t="s">
+      <c r="C359" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D359" s="22" t="s">
+      <c r="D359" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E359" s="22" t="s">
+      <c r="E359" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F359" s="22" t="s">
+      <c r="F359" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G359" s="22">
+      <c r="G359" s="1">
         <v>45595</v>
       </c>
-      <c r="H359" s="22">
+      <c r="H359" s="1">
         <v>45601</v>
       </c>
-      <c r="I359" s="22" t="s">
+      <c r="I359" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="J359" s="22" t="s">
+      <c r="J359" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K359" s="22">
+      <c r="K359" s="1">
         <v>5</v>
       </c>
-      <c r="L359" s="22">
-        <v>0</v>
-      </c>
-      <c r="M359" s="22">
-        <v>0</v>
-      </c>
-      <c r="N359" s="22" t="s">
+      <c r="L359" s="1">
+        <v>0</v>
+      </c>
+      <c r="M359" s="1">
+        <v>0</v>
+      </c>
+      <c r="N359" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O359" s="22">
+      <c r="O359" s="1">
         <v>4546</v>
       </c>
-      <c r="P359" s="22">
+      <c r="P359" s="1">
         <v>22730</v>
       </c>
       <c r="Q359" s="2">
         <v>45572</v>
       </c>
-      <c r="R359" s="22" t="s">
+      <c r="R359" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S359" s="22" t="s">
+      <c r="S359" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U359" s="22" t="s">
+      <c r="U359" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V359" s="22" t="s">
+      <c r="V359" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="X359" s="22">
+      <c r="X359" s="1">
         <v>4</v>
       </c>
-      <c r="Y359" s="22" t="s">
+      <c r="Y359" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z359" s="22" t="s">
+      <c r="Z359" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB359" s="22" t="s">
+      <c r="AB359" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC359" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD359" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE359" s="22">
+      <c r="AC359" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD359" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE359" s="1">
         <v>2573</v>
       </c>
-      <c r="AF359" s="22">
+      <c r="AF359" s="1">
         <v>12865</v>
       </c>
-      <c r="AG359" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH359" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI359" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ359" s="22">
+      <c r="AG359" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH359" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI359" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ359" s="1">
         <v>101</v>
       </c>
-      <c r="AK359" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL359" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM359" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN359" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP359" s="22">
-        <v>1</v>
-      </c>
-      <c r="AQ359" s="22" t="s">
+      <c r="AK359" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL359" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM359" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN359" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP359" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ359" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AR359" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AS359" s="22" t="s">
+      <c r="AS359" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="AT359" s="22">
+      <c r="AT359" s="1">
         <v>952</v>
       </c>
-      <c r="AU359" s="22" t="s">
+      <c r="AU359" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV359" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW359" s="22" t="s">
+      <c r="AV359" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW359" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX359" s="22">
+      <c r="AX359" s="1">
         <v>13</v>
       </c>
-      <c r="AY359" s="22" t="s">
+      <c r="AY359" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AZ359" s="5"/>
+      <c r="AZ359" s="23"/>
     </row>
     <row r="360" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A360" s="22">
+      <c r="A360" s="1">
         <v>94</v>
       </c>
-      <c r="B360" s="22" t="s">
+      <c r="B360" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="C360" s="22" t="s">
+      <c r="C360" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D360" s="22" t="s">
+      <c r="D360" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E360" s="22" t="s">
+      <c r="E360" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F360" s="22" t="s">
+      <c r="F360" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G360" s="22">
+      <c r="G360" s="1">
         <v>45595</v>
       </c>
-      <c r="H360" s="22">
+      <c r="H360" s="1">
         <v>45601</v>
       </c>
-      <c r="I360" s="22" t="s">
+      <c r="I360" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="J360" s="22" t="s">
+      <c r="J360" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K360" s="22">
-        <v>1</v>
-      </c>
-      <c r="L360" s="22">
-        <v>0</v>
-      </c>
-      <c r="M360" s="22">
-        <v>0</v>
-      </c>
-      <c r="N360" s="22" t="s">
+      <c r="K360" s="1">
+        <v>1</v>
+      </c>
+      <c r="L360" s="1">
+        <v>0</v>
+      </c>
+      <c r="M360" s="1">
+        <v>0</v>
+      </c>
+      <c r="N360" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O360" s="22">
+      <c r="O360" s="1">
         <v>8800</v>
       </c>
-      <c r="P360" s="22">
+      <c r="P360" s="1">
         <v>8800</v>
       </c>
       <c r="Q360" s="2">
         <v>45572</v>
       </c>
-      <c r="R360" s="22" t="s">
+      <c r="R360" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S360" s="22" t="s">
+      <c r="S360" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U360" s="22" t="s">
+      <c r="U360" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V360" s="22" t="s">
+      <c r="V360" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="X360" s="22">
+      <c r="X360" s="1">
         <v>4</v>
       </c>
-      <c r="Y360" s="22" t="s">
+      <c r="Y360" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z360" s="22" t="s">
+      <c r="Z360" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB360" s="22" t="s">
+      <c r="AB360" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC360" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD360" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE360" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF360" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG360" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH360" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI360" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ360" s="22">
+      <c r="AC360" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD360" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE360" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF360" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG360" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH360" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI360" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ360" s="1">
         <v>101</v>
       </c>
-      <c r="AK360" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL360" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM360" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN360" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP360" s="22">
+      <c r="AK360" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL360" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM360" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN360" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP360" s="1">
         <v>81</v>
       </c>
-      <c r="AQ360" s="22" t="s">
+      <c r="AQ360" s="1" t="s">
         <v>234</v>
       </c>
       <c r="AR360" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AS360" s="22" t="s">
+      <c r="AS360" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="AT360" s="22">
+      <c r="AT360" s="1">
         <v>952</v>
       </c>
-      <c r="AU360" s="22" t="s">
+      <c r="AU360" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV360" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW360" s="22" t="s">
+      <c r="AV360" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW360" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX360" s="22">
+      <c r="AX360" s="1">
         <v>13</v>
       </c>
-      <c r="AY360" s="22" t="s">
+      <c r="AY360" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AZ360" s="5"/>
+      <c r="AZ360" s="23"/>
     </row>
     <row r="361" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A361" s="22">
+      <c r="A361" s="1">
         <v>82</v>
       </c>
-      <c r="B361" s="22" t="s">
+      <c r="B361" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="C361" s="22" t="s">
+      <c r="C361" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D361" s="22" t="s">
+      <c r="D361" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E361" s="22" t="s">
+      <c r="E361" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F361" s="22" t="s">
+      <c r="F361" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G361" s="22">
+      <c r="G361" s="1">
         <v>45594</v>
       </c>
-      <c r="H361" s="22">
+      <c r="H361" s="1">
         <v>45597</v>
       </c>
-      <c r="I361" s="22" t="s">
+      <c r="I361" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="J361" s="22" t="s">
+      <c r="J361" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="K361" s="22">
-        <v>1</v>
-      </c>
-      <c r="L361" s="22">
+      <c r="K361" s="1">
+        <v>1</v>
+      </c>
+      <c r="L361" s="1">
         <v>3.5</v>
       </c>
-      <c r="M361" s="22">
+      <c r="M361" s="1">
         <v>2</v>
       </c>
-      <c r="N361" s="22" t="s">
+      <c r="N361" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O361" s="22">
+      <c r="O361" s="1">
         <v>61500</v>
       </c>
-      <c r="P361" s="22">
+      <c r="P361" s="1">
         <v>61500</v>
       </c>
       <c r="Q361" s="2">
         <v>45573</v>
       </c>
-      <c r="R361" s="22" t="s">
+      <c r="R361" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S361" s="22" t="s">
+      <c r="S361" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U361" s="22" t="s">
+      <c r="U361" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V361" s="22" t="s">
+      <c r="V361" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="X361" s="22">
+      <c r="X361" s="1">
         <v>4</v>
       </c>
-      <c r="Y361" s="22" t="s">
+      <c r="Y361" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z361" s="22" t="s">
+      <c r="Z361" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB361" s="22" t="s">
+      <c r="AB361" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC361" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD361" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE361" s="22">
+      <c r="AC361" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD361" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE361" s="1">
         <v>49533</v>
       </c>
-      <c r="AF361" s="22">
+      <c r="AF361" s="1">
         <v>49533</v>
       </c>
-      <c r="AG361" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH361" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI361" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ361" s="22">
+      <c r="AG361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ361" s="1">
         <v>101</v>
       </c>
-      <c r="AK361" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL361" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM361" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN361" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP361" s="22">
+      <c r="AK361" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL361" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM361" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN361" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP361" s="1">
         <v>142</v>
       </c>
-      <c r="AQ361" s="22" t="s">
+      <c r="AQ361" s="1" t="s">
         <v>1566</v>
       </c>
       <c r="AR361" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="AS361" s="22" t="s">
+      <c r="AS361" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="AT361" s="22">
+      <c r="AT361" s="1">
         <v>952</v>
       </c>
-      <c r="AU361" s="22" t="s">
+      <c r="AU361" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV361" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW361" s="22" t="s">
+      <c r="AV361" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW361" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AX361" s="22">
+      <c r="AX361" s="1">
         <v>22</v>
       </c>
-      <c r="AY361" s="22" t="s">
+      <c r="AY361" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ361" s="5">
+      <c r="AZ361" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="362" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A362" s="22">
+      <c r="A362" s="1">
         <v>83</v>
       </c>
-      <c r="B362" s="22" t="s">
+      <c r="B362" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="C362" s="22" t="s">
+      <c r="C362" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D362" s="22" t="s">
+      <c r="D362" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E362" s="22" t="s">
+      <c r="E362" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F362" s="22" t="s">
+      <c r="F362" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G362" s="22">
+      <c r="G362" s="1">
         <v>45594</v>
       </c>
-      <c r="H362" s="22">
+      <c r="H362" s="1">
         <v>45597</v>
       </c>
-      <c r="I362" s="22" t="s">
+      <c r="I362" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="J362" s="22" t="s">
+      <c r="J362" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="K362" s="22">
+      <c r="K362" s="1">
         <v>6</v>
       </c>
-      <c r="L362" s="22">
+      <c r="L362" s="1">
         <v>28.8</v>
       </c>
-      <c r="M362" s="22">
+      <c r="M362" s="1">
         <v>3</v>
       </c>
-      <c r="N362" s="22" t="s">
+      <c r="N362" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O362" s="22">
+      <c r="O362" s="1">
         <v>20500</v>
       </c>
-      <c r="P362" s="22">
+      <c r="P362" s="1">
         <v>123000</v>
       </c>
       <c r="Q362" s="2">
         <v>45573</v>
       </c>
-      <c r="R362" s="22" t="s">
+      <c r="R362" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S362" s="22" t="s">
+      <c r="S362" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U362" s="22" t="s">
+      <c r="U362" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V362" s="22" t="s">
+      <c r="V362" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="X362" s="22">
+      <c r="X362" s="1">
         <v>4</v>
       </c>
-      <c r="Y362" s="22" t="s">
+      <c r="Y362" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Z362" s="22" t="s">
+      <c r="Z362" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AB362" s="22" t="s">
+      <c r="AB362" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC362" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD362" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE362" s="22">
+      <c r="AC362" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD362" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE362" s="1">
         <v>13142</v>
       </c>
-      <c r="AF362" s="22">
+      <c r="AF362" s="1">
         <v>78852</v>
       </c>
-      <c r="AG362" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH362" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI362" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ362" s="22">
+      <c r="AG362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI362" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ362" s="1">
         <v>101</v>
       </c>
-      <c r="AK362" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL362" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM362" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN362" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP362" s="22">
+      <c r="AK362" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL362" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM362" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN362" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP362" s="1">
         <v>71</v>
       </c>
-      <c r="AQ362" s="22" t="s">
+      <c r="AQ362" s="1" t="s">
         <v>516</v>
       </c>
       <c r="AR362" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="AS362" s="22" t="s">
+      <c r="AS362" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="AT362" s="22">
+      <c r="AT362" s="1">
         <v>952</v>
       </c>
-      <c r="AU362" s="22" t="s">
+      <c r="AU362" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV362" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW362" s="22" t="s">
+      <c r="AV362" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW362" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX362" s="22">
+      <c r="AX362" s="1">
         <v>12</v>
       </c>
-      <c r="AY362" s="22" t="s">
+      <c r="AY362" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AZ362" s="5"/>
+      <c r="AZ362" s="23">
+        <v>50</v>
+      </c>
     </row>
     <row r="363" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A363" s="22">
+      <c r="A363" s="1">
         <v>208</v>
       </c>
-      <c r="B363" s="22" t="s">
+      <c r="B363" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="C363" s="22" t="s">
+      <c r="C363" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D363" s="22" t="s">
+      <c r="D363" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E363" s="22" t="s">
+      <c r="E363" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F363" s="22" t="s">
+      <c r="F363" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G363" s="22">
+      <c r="G363" s="1">
         <v>45621</v>
       </c>
-      <c r="H363" s="22">
+      <c r="H363" s="1">
         <v>45624</v>
       </c>
-      <c r="I363" s="22" t="s">
+      <c r="I363" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="J363" s="22" t="s">
+      <c r="J363" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="K363" s="22">
-        <v>1</v>
-      </c>
-      <c r="L363" s="22">
+      <c r="K363" s="1">
+        <v>1</v>
+      </c>
+      <c r="L363" s="1">
         <v>3.7</v>
       </c>
-      <c r="M363" s="22">
-        <v>1</v>
-      </c>
-      <c r="N363" s="22" t="s">
+      <c r="M363" s="1">
+        <v>1</v>
+      </c>
+      <c r="N363" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O363" s="22">
+      <c r="O363" s="1">
         <v>58000</v>
       </c>
-      <c r="P363" s="22">
+      <c r="P363" s="1">
         <v>58000</v>
       </c>
       <c r="Q363" s="2">
         <v>45580</v>
       </c>
-      <c r="R363" s="22" t="s">
+      <c r="R363" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S363" s="22" t="s">
+      <c r="S363" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U363" s="22" t="s">
+      <c r="U363" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V363" s="22" t="s">
+      <c r="V363" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="X363" s="22">
+      <c r="X363" s="1">
         <v>4</v>
       </c>
-      <c r="Y363" s="22" t="s">
+      <c r="Y363" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB363" s="22" t="s">
+      <c r="AB363" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC363" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD363" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE363" s="22">
+      <c r="AC363" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD363" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE363" s="1">
         <v>47135</v>
       </c>
-      <c r="AF363" s="22">
+      <c r="AF363" s="1">
         <v>47135</v>
       </c>
-      <c r="AG363" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH363" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI363" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ363" s="22">
+      <c r="AG363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ363" s="1">
         <v>101</v>
       </c>
-      <c r="AK363" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL363" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM363" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN363" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP363" s="22">
+      <c r="AK363" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL363" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM363" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN363" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP363" s="1">
         <v>106</v>
       </c>
-      <c r="AQ363" s="22" t="s">
+      <c r="AQ363" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="AR363" s="4" t="s">
         <v>799</v>
       </c>
-      <c r="AS363" s="22" t="s">
+      <c r="AS363" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="AT363" s="22">
+      <c r="AT363" s="1">
         <v>952</v>
       </c>
-      <c r="AU363" s="22" t="s">
+      <c r="AU363" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV363" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW363" s="22" t="s">
+      <c r="AV363" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW363" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AX363" s="22">
+      <c r="AX363" s="1">
         <v>22</v>
       </c>
-      <c r="AY363" s="22" t="s">
+      <c r="AY363" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AZ363" s="5">
+      <c r="AZ363" s="23">
         <v>50</v>
       </c>
     </row>
     <row r="364" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A364" s="22">
+      <c r="A364" s="1">
         <v>217</v>
       </c>
-      <c r="B364" s="22" t="s">
+      <c r="B364" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="C364" s="22" t="s">
+      <c r="C364" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D364" s="22" t="s">
+      <c r="D364" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E364" s="22" t="s">
+      <c r="E364" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F364" s="22" t="s">
+      <c r="F364" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G364" s="22">
+      <c r="G364" s="1">
         <v>45635</v>
       </c>
-      <c r="H364" s="22">
+      <c r="H364" s="1">
         <v>45638</v>
       </c>
-      <c r="I364" s="22" t="s">
+      <c r="I364" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="J364" s="22" t="s">
+      <c r="J364" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="K364" s="22">
-        <v>1</v>
-      </c>
-      <c r="L364" s="22">
+      <c r="K364" s="1">
+        <v>1</v>
+      </c>
+      <c r="L364" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M364" s="22">
+      <c r="M364" s="1">
         <v>2</v>
       </c>
-      <c r="N364" s="22" t="s">
+      <c r="N364" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O364" s="22">
+      <c r="O364" s="1">
         <v>161000</v>
       </c>
-      <c r="P364" s="22">
+      <c r="P364" s="1">
         <v>161000</v>
       </c>
       <c r="Q364" s="2">
         <v>45580</v>
       </c>
-      <c r="R364" s="22" t="s">
+      <c r="R364" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S364" s="22" t="s">
+      <c r="S364" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U364" s="22" t="s">
+      <c r="U364" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V364" s="22" t="s">
+      <c r="V364" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="X364" s="22">
+      <c r="X364" s="1">
         <v>4</v>
       </c>
-      <c r="Y364" s="22" t="s">
+      <c r="Y364" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB364" s="22" t="s">
+      <c r="AB364" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC364" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD364" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE364" s="22">
+      <c r="AC364" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD364" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE364" s="1">
         <v>85466</v>
       </c>
-      <c r="AF364" s="22">
+      <c r="AF364" s="1">
         <v>85466</v>
       </c>
-      <c r="AG364" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH364" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI364" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ364" s="22">
+      <c r="AG364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ364" s="1">
         <v>101</v>
       </c>
-      <c r="AK364" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL364" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM364" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN364" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP364" s="22">
+      <c r="AK364" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL364" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM364" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN364" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP364" s="1">
         <v>64</v>
       </c>
-      <c r="AQ364" s="22" t="s">
+      <c r="AQ364" s="1" t="s">
         <v>273</v>
       </c>
       <c r="AR364" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AS364" s="22" t="s">
+      <c r="AS364" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="AT364" s="22">
+      <c r="AT364" s="1">
         <v>952</v>
       </c>
-      <c r="AU364" s="22" t="s">
+      <c r="AU364" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV364" s="22">
-        <v>1</v>
-      </c>
-      <c r="AW364" s="22" t="s">
+      <c r="AV364" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW364" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AX364" s="22">
+      <c r="AX364" s="1">
         <v>22</v>
       </c>
-      <c r="AY364" s="22" t="s">
+      <c r="AY364" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AZ364" s="4">
@@ -65275,142 +65394,142 @@
       </c>
     </row>
     <row r="365" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A365" s="22">
+      <c r="A365" s="1">
         <v>218</v>
       </c>
-      <c r="B365" s="22" t="s">
+      <c r="B365" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="C365" s="22" t="s">
+      <c r="C365" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D365" s="22" t="s">
+      <c r="D365" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E365" s="22" t="s">
+      <c r="E365" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F365" s="22" t="s">
+      <c r="F365" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G365" s="22">
+      <c r="G365" s="1">
         <v>45635</v>
       </c>
-      <c r="H365" s="22">
+      <c r="H365" s="1">
         <v>45638</v>
       </c>
-      <c r="I365" s="22" t="s">
+      <c r="I365" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="J365" s="22" t="s">
+      <c r="J365" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="K365" s="22">
+      <c r="K365" s="1">
         <v>4</v>
       </c>
-      <c r="L365" s="22">
+      <c r="L365" s="1">
         <v>41.2</v>
       </c>
-      <c r="M365" s="22">
+      <c r="M365" s="1">
         <v>4</v>
       </c>
-      <c r="N365" s="22" t="s">
+      <c r="N365" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O365" s="22">
+      <c r="O365" s="1">
         <v>62700</v>
       </c>
-      <c r="P365" s="22">
+      <c r="P365" s="1">
         <v>250800</v>
       </c>
       <c r="Q365" s="2">
         <v>45580</v>
       </c>
-      <c r="R365" s="22" t="s">
+      <c r="R365" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S365" s="22" t="s">
+      <c r="S365" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U365" s="22" t="s">
+      <c r="U365" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V365" s="22" t="s">
+      <c r="V365" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="X365" s="22">
+      <c r="X365" s="1">
         <v>4</v>
       </c>
-      <c r="Y365" s="22" t="s">
+      <c r="Y365" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB365" s="22" t="s">
+      <c r="AB365" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC365" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD365" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE365" s="22">
+      <c r="AC365" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD365" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE365" s="1">
         <v>35762</v>
       </c>
-      <c r="AF365" s="22">
+      <c r="AF365" s="1">
         <v>143048</v>
       </c>
-      <c r="AG365" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH365" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI365" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ365" s="22">
+      <c r="AG365" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH365" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI365" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ365" s="1">
         <v>101</v>
       </c>
-      <c r="AK365" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL365" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM365" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN365" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP365" s="22">
+      <c r="AK365" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL365" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM365" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN365" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP365" s="1">
         <v>127</v>
       </c>
-      <c r="AQ365" s="22" t="s">
+      <c r="AQ365" s="1" t="s">
         <v>314</v>
       </c>
       <c r="AR365" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AS365" s="22" t="s">
+      <c r="AS365" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="AT365" s="22">
+      <c r="AT365" s="1">
         <v>952</v>
       </c>
-      <c r="AU365" s="22" t="s">
+      <c r="AU365" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV365" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW365" s="22" t="s">
+      <c r="AV365" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW365" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX365" s="22">
+      <c r="AX365" s="1">
         <v>12</v>
       </c>
-      <c r="AY365" s="22" t="s">
+      <c r="AY365" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AZ365" s="4">
@@ -65418,142 +65537,142 @@
       </c>
     </row>
     <row r="366" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A366" s="22">
+      <c r="A366" s="1">
         <v>219</v>
       </c>
-      <c r="B366" s="22" t="s">
+      <c r="B366" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="C366" s="22" t="s">
+      <c r="C366" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D366" s="22" t="s">
+      <c r="D366" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E366" s="22" t="s">
+      <c r="E366" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F366" s="22" t="s">
+      <c r="F366" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G366" s="22">
+      <c r="G366" s="1">
         <v>45635</v>
       </c>
-      <c r="H366" s="22">
+      <c r="H366" s="1">
         <v>45638</v>
       </c>
-      <c r="I366" s="22" t="s">
+      <c r="I366" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="J366" s="22" t="s">
+      <c r="J366" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="K366" s="22">
+      <c r="K366" s="1">
         <v>2</v>
       </c>
-      <c r="L366" s="22">
+      <c r="L366" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="M366" s="22">
+      <c r="M366" s="1">
         <v>2</v>
       </c>
-      <c r="N366" s="22" t="s">
+      <c r="N366" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O366" s="22">
+      <c r="O366" s="1">
         <v>57000</v>
       </c>
-      <c r="P366" s="22">
+      <c r="P366" s="1">
         <v>114000</v>
       </c>
       <c r="Q366" s="2">
         <v>45580</v>
       </c>
-      <c r="R366" s="22" t="s">
+      <c r="R366" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S366" s="22" t="s">
+      <c r="S366" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U366" s="22" t="s">
+      <c r="U366" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V366" s="22" t="s">
+      <c r="V366" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="X366" s="22">
+      <c r="X366" s="1">
         <v>4</v>
       </c>
-      <c r="Y366" s="22" t="s">
+      <c r="Y366" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB366" s="22" t="s">
+      <c r="AB366" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC366" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD366" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE366" s="22">
+      <c r="AC366" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD366" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE366" s="1">
         <v>35555</v>
       </c>
-      <c r="AF366" s="22">
+      <c r="AF366" s="1">
         <v>71110</v>
       </c>
-      <c r="AG366" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH366" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI366" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ366" s="22">
+      <c r="AG366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI366" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ366" s="1">
         <v>101</v>
       </c>
-      <c r="AK366" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL366" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM366" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN366" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP366" s="22">
+      <c r="AK366" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL366" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM366" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN366" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP366" s="1">
         <v>4</v>
       </c>
-      <c r="AQ366" s="22" t="s">
+      <c r="AQ366" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AR366" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AS366" s="22" t="s">
+      <c r="AS366" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="AT366" s="22">
+      <c r="AT366" s="1">
         <v>952</v>
       </c>
-      <c r="AU366" s="22" t="s">
+      <c r="AU366" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV366" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW366" s="22" t="s">
+      <c r="AV366" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW366" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX366" s="22">
+      <c r="AX366" s="1">
         <v>12</v>
       </c>
-      <c r="AY366" s="22" t="s">
+      <c r="AY366" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AZ366" s="4">
@@ -65561,142 +65680,142 @@
       </c>
     </row>
     <row r="367" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A367" s="22">
+      <c r="A367" s="1">
         <v>220</v>
       </c>
-      <c r="B367" s="22" t="s">
+      <c r="B367" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="C367" s="22" t="s">
+      <c r="C367" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D367" s="22" t="s">
+      <c r="D367" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E367" s="22" t="s">
+      <c r="E367" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F367" s="22" t="s">
+      <c r="F367" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G367" s="22">
+      <c r="G367" s="1">
         <v>45635</v>
       </c>
-      <c r="H367" s="22">
+      <c r="H367" s="1">
         <v>45638</v>
       </c>
-      <c r="I367" s="22" t="s">
+      <c r="I367" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="J367" s="22" t="s">
+      <c r="J367" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="K367" s="22">
-        <v>1</v>
-      </c>
-      <c r="L367" s="22">
+      <c r="K367" s="1">
+        <v>1</v>
+      </c>
+      <c r="L367" s="1">
         <v>36.299999999999997</v>
       </c>
-      <c r="M367" s="22">
-        <v>1</v>
-      </c>
-      <c r="N367" s="22" t="s">
+      <c r="M367" s="1">
+        <v>1</v>
+      </c>
+      <c r="N367" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O367" s="22">
+      <c r="O367" s="1">
         <v>106820</v>
       </c>
-      <c r="P367" s="22">
+      <c r="P367" s="1">
         <v>106820</v>
       </c>
       <c r="Q367" s="2">
         <v>45580</v>
       </c>
-      <c r="R367" s="22" t="s">
+      <c r="R367" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S367" s="22" t="s">
+      <c r="S367" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U367" s="22" t="s">
+      <c r="U367" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V367" s="22" t="s">
+      <c r="V367" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="X367" s="22">
+      <c r="X367" s="1">
         <v>4</v>
       </c>
-      <c r="Y367" s="22" t="s">
+      <c r="Y367" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB367" s="22" t="s">
+      <c r="AB367" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC367" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD367" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE367" s="22">
+      <c r="AC367" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD367" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE367" s="1">
         <v>64983</v>
       </c>
-      <c r="AF367" s="22">
+      <c r="AF367" s="1">
         <v>64983</v>
       </c>
-      <c r="AG367" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH367" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI367" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ367" s="22">
+      <c r="AG367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI367" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ367" s="1">
         <v>101</v>
       </c>
-      <c r="AK367" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL367" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM367" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN367" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP367" s="22">
+      <c r="AK367" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL367" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM367" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN367" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP367" s="1">
         <v>52</v>
       </c>
-      <c r="AQ367" s="22" t="s">
+      <c r="AQ367" s="1" t="s">
         <v>83</v>
       </c>
       <c r="AR367" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AS367" s="22" t="s">
+      <c r="AS367" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="AT367" s="22">
+      <c r="AT367" s="1">
         <v>952</v>
       </c>
-      <c r="AU367" s="22" t="s">
+      <c r="AU367" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV367" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW367" s="22" t="s">
+      <c r="AV367" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW367" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX367" s="22">
+      <c r="AX367" s="1">
         <v>11</v>
       </c>
-      <c r="AY367" s="22" t="s">
+      <c r="AY367" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AZ367" s="4">
@@ -65704,142 +65823,142 @@
       </c>
     </row>
     <row r="368" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A368" s="22">
+      <c r="A368" s="1">
         <v>221</v>
       </c>
-      <c r="B368" s="22" t="s">
+      <c r="B368" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="C368" s="22" t="s">
+      <c r="C368" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D368" s="22" t="s">
+      <c r="D368" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E368" s="22" t="s">
+      <c r="E368" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="F368" s="22" t="s">
+      <c r="F368" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="G368" s="22">
+      <c r="G368" s="1">
         <v>45635</v>
       </c>
-      <c r="H368" s="22">
+      <c r="H368" s="1">
         <v>45638</v>
       </c>
-      <c r="I368" s="22" t="s">
+      <c r="I368" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="J368" s="22" t="s">
+      <c r="J368" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="K368" s="22">
+      <c r="K368" s="1">
         <v>3</v>
       </c>
-      <c r="L368" s="22">
-        <v>0</v>
-      </c>
-      <c r="M368" s="22">
-        <v>0</v>
-      </c>
-      <c r="N368" s="22" t="s">
+      <c r="L368" s="1">
+        <v>0</v>
+      </c>
+      <c r="M368" s="1">
+        <v>0</v>
+      </c>
+      <c r="N368" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O368" s="22">
+      <c r="O368" s="1">
         <v>6000</v>
       </c>
-      <c r="P368" s="22">
+      <c r="P368" s="1">
         <v>18000</v>
       </c>
       <c r="Q368" s="2">
         <v>45580</v>
       </c>
-      <c r="R368" s="22" t="s">
+      <c r="R368" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S368" s="22" t="s">
+      <c r="S368" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U368" s="22" t="s">
+      <c r="U368" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V368" s="22" t="s">
+      <c r="V368" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="X368" s="22">
+      <c r="X368" s="1">
         <v>4</v>
       </c>
-      <c r="Y368" s="22" t="s">
+      <c r="Y368" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB368" s="22" t="s">
+      <c r="AB368" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AC368" s="22">
-        <v>110</v>
-      </c>
-      <c r="AD368" s="22">
-        <v>110</v>
-      </c>
-      <c r="AE368" s="22">
+      <c r="AC368" s="1">
+        <v>110</v>
+      </c>
+      <c r="AD368" s="1">
+        <v>110</v>
+      </c>
+      <c r="AE368" s="1">
         <v>3613</v>
       </c>
-      <c r="AF368" s="22">
+      <c r="AF368" s="1">
         <v>10839</v>
       </c>
-      <c r="AG368" s="22">
-        <v>1</v>
-      </c>
-      <c r="AH368" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI368" s="22">
-        <v>1</v>
-      </c>
-      <c r="AJ368" s="22">
+      <c r="AG368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ368" s="1">
         <v>101</v>
       </c>
-      <c r="AK368" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL368" s="22">
-        <v>0</v>
-      </c>
-      <c r="AM368" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN368" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP368" s="22">
-        <v>1</v>
-      </c>
-      <c r="AQ368" s="22" t="s">
+      <c r="AK368" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL368" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM368" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN368" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP368" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ368" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AR368" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AS368" s="22" t="s">
+      <c r="AS368" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="AT368" s="22">
+      <c r="AT368" s="1">
         <v>952</v>
       </c>
-      <c r="AU368" s="22" t="s">
+      <c r="AU368" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AV368" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW368" s="22" t="s">
+      <c r="AV368" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW368" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX368" s="22">
+      <c r="AX368" s="1">
         <v>13</v>
       </c>
-      <c r="AY368" s="22" t="s">
+      <c r="AY368" s="1" t="s">
         <v>238</v>
       </c>
       <c r="AZ368" s="4">
@@ -65847,142 +65966,142 @@
       </c>
     </row>
     <row r="369" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A369">
+      <c r="A369" s="22">
         <v>348</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="22" t="s">
         <v>1593</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E369" t="s">
+      <c r="E369" s="22" t="s">
         <v>1531</v>
       </c>
-      <c r="F369" t="s">
+      <c r="F369" s="22" t="s">
         <v>1532</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="22">
         <v>45727</v>
       </c>
-      <c r="H369">
+      <c r="H369" s="22">
         <v>45730</v>
       </c>
-      <c r="I369" t="s">
+      <c r="I369" s="22" t="s">
         <v>1594</v>
       </c>
-      <c r="J369" t="s">
+      <c r="J369" s="22" t="s">
         <v>1595</v>
       </c>
-      <c r="K369">
-        <v>1</v>
-      </c>
-      <c r="L369">
+      <c r="K369" s="22">
+        <v>1</v>
+      </c>
+      <c r="L369" s="22">
         <v>10.3</v>
       </c>
-      <c r="M369">
-        <v>1</v>
-      </c>
-      <c r="N369" t="s">
+      <c r="M369" s="22">
+        <v>1</v>
+      </c>
+      <c r="N369" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O369">
+      <c r="O369" s="22">
         <v>50600</v>
       </c>
-      <c r="P369">
+      <c r="P369" s="22">
         <v>50600</v>
       </c>
       <c r="Q369" s="2">
         <v>45586</v>
       </c>
-      <c r="R369" t="s">
+      <c r="R369" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S369" t="s">
+      <c r="S369" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="U369" t="s">
+      <c r="U369" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="V369" t="s">
+      <c r="V369" s="22" t="s">
         <v>1596</v>
       </c>
-      <c r="X369">
+      <c r="X369" s="22">
         <v>4</v>
       </c>
-      <c r="Y369" t="s">
+      <c r="Y369" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB369" t="s">
+      <c r="AB369" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="AC369">
-        <v>110</v>
-      </c>
-      <c r="AD369">
-        <v>110</v>
-      </c>
-      <c r="AE369">
+      <c r="AC369" s="22">
+        <v>110</v>
+      </c>
+      <c r="AD369" s="22">
+        <v>110</v>
+      </c>
+      <c r="AE369" s="22">
         <v>26593</v>
       </c>
-      <c r="AF369">
+      <c r="AF369" s="22">
         <v>26593</v>
       </c>
-      <c r="AG369">
-        <v>1</v>
-      </c>
-      <c r="AH369">
-        <v>1</v>
-      </c>
-      <c r="AI369">
-        <v>1</v>
-      </c>
-      <c r="AJ369">
+      <c r="AG369" s="22">
+        <v>1</v>
+      </c>
+      <c r="AH369" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI369" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ369" s="22">
         <v>101</v>
       </c>
-      <c r="AK369">
-        <v>0</v>
-      </c>
-      <c r="AL369">
-        <v>0</v>
-      </c>
-      <c r="AM369">
-        <v>0</v>
-      </c>
-      <c r="AN369">
-        <v>0</v>
-      </c>
-      <c r="AP369">
+      <c r="AK369" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL369" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM369" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN369" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP369" s="22">
         <v>127</v>
       </c>
-      <c r="AQ369" t="s">
+      <c r="AQ369" s="22" t="s">
         <v>314</v>
       </c>
       <c r="AR369" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="AS369" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS369" s="22" t="s">
         <v>1597</v>
       </c>
-      <c r="AT369">
+      <c r="AT369" s="22">
         <v>952</v>
       </c>
-      <c r="AU369" t="s">
+      <c r="AU369" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AV369">
-        <v>0</v>
-      </c>
-      <c r="AW369" t="s">
+      <c r="AV369" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW369" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AX369">
+      <c r="AX369" s="22">
         <v>12</v>
       </c>
-      <c r="AY369" t="s">
+      <c r="AY369" s="22" t="s">
         <v>69</v>
       </c>
       <c r="AZ369" s="4">
@@ -65990,283 +66109,285 @@
       </c>
     </row>
     <row r="370" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A370">
+      <c r="A370" s="22">
         <v>331</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="22" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C370" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D370" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E370" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F370" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="G370" s="22">
+        <v>45617</v>
+      </c>
+      <c r="H370" s="22">
+        <v>45622</v>
+      </c>
+      <c r="I370" s="22" t="s">
         <v>1599</v>
       </c>
-      <c r="C370" t="s">
-        <v>53</v>
-      </c>
-      <c r="D370" t="s">
-        <v>54</v>
-      </c>
-      <c r="E370" t="s">
-        <v>53</v>
-      </c>
-      <c r="F370" t="s">
-        <v>568</v>
-      </c>
-      <c r="G370">
-        <v>45617</v>
-      </c>
-      <c r="H370">
-        <v>45622</v>
-      </c>
-      <c r="I370" t="s">
+      <c r="J370" s="22" t="s">
         <v>1600</v>
       </c>
-      <c r="J370" t="s">
-        <v>1601</v>
-      </c>
-      <c r="K370">
-        <v>1</v>
-      </c>
-      <c r="L370">
+      <c r="K370" s="22">
+        <v>1</v>
+      </c>
+      <c r="L370" s="22">
         <v>10.3</v>
       </c>
-      <c r="M370">
-        <v>1</v>
-      </c>
-      <c r="N370" t="s">
+      <c r="M370" s="22">
+        <v>1</v>
+      </c>
+      <c r="N370" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O370">
+      <c r="O370" s="22">
         <v>48400</v>
       </c>
-      <c r="P370">
+      <c r="P370" s="22">
         <v>48400</v>
       </c>
       <c r="Q370" s="2">
         <v>45593</v>
       </c>
-      <c r="R370" t="s">
+      <c r="R370" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S370" t="s">
+      <c r="S370" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="U370" t="s">
+      <c r="U370" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="V370" t="s">
+      <c r="V370" s="22" t="s">
+        <v>1601</v>
+      </c>
+      <c r="X370" s="22">
+        <v>4</v>
+      </c>
+      <c r="Y370" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB370" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC370" s="22">
+        <v>110</v>
+      </c>
+      <c r="AD370" s="22">
+        <v>110</v>
+      </c>
+      <c r="AE370" s="22">
+        <v>25978</v>
+      </c>
+      <c r="AF370" s="22">
+        <v>25978</v>
+      </c>
+      <c r="AG370" s="22">
+        <v>1</v>
+      </c>
+      <c r="AH370" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI370" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ370" s="22">
+        <v>101</v>
+      </c>
+      <c r="AK370" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL370" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM370" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN370" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP370" s="22">
+        <v>127</v>
+      </c>
+      <c r="AQ370" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR370" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AS370" s="22" t="s">
         <v>1602</v>
       </c>
-      <c r="X370">
-        <v>4</v>
-      </c>
-      <c r="Y370" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB370" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC370">
-        <v>110</v>
-      </c>
-      <c r="AD370">
-        <v>110</v>
-      </c>
-      <c r="AE370">
-        <v>25978</v>
-      </c>
-      <c r="AF370">
-        <v>25978</v>
-      </c>
-      <c r="AG370">
-        <v>1</v>
-      </c>
-      <c r="AH370">
-        <v>1</v>
-      </c>
-      <c r="AI370">
-        <v>1</v>
-      </c>
-      <c r="AJ370">
-        <v>101</v>
-      </c>
-      <c r="AK370">
-        <v>0</v>
-      </c>
-      <c r="AL370">
-        <v>0</v>
-      </c>
-      <c r="AM370">
-        <v>0</v>
-      </c>
-      <c r="AN370">
-        <v>0</v>
-      </c>
-      <c r="AP370">
-        <v>127</v>
-      </c>
-      <c r="AQ370" t="s">
-        <v>314</v>
-      </c>
-      <c r="AR370" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="AS370" t="s">
+      <c r="AT370" s="22">
+        <v>952</v>
+      </c>
+      <c r="AU370" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV370" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW370" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX370" s="22">
+        <v>12</v>
+      </c>
+      <c r="AY370" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ370" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="371" spans="1:52" ht="12.75" customHeight="1">
+      <c r="A371" s="22">
+        <v>299</v>
+      </c>
+      <c r="B371" s="22" t="s">
         <v>1603</v>
       </c>
-      <c r="AT370">
-        <v>952</v>
-      </c>
-      <c r="AU370" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV370">
-        <v>0</v>
-      </c>
-      <c r="AW370" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX370">
-        <v>12</v>
-      </c>
-      <c r="AY370" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ370" s="23"/>
-    </row>
-    <row r="371" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A371">
-        <v>299</v>
-      </c>
-      <c r="B371" t="s">
+      <c r="C371" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D371" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E371" s="22" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F371" s="22" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G371" s="22">
+        <v>45614</v>
+      </c>
+      <c r="H371" s="22">
+        <v>45617</v>
+      </c>
+      <c r="I371" s="22" t="s">
         <v>1604</v>
       </c>
-      <c r="C371" t="s">
-        <v>53</v>
-      </c>
-      <c r="D371" t="s">
-        <v>54</v>
-      </c>
-      <c r="E371" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F371" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G371">
-        <v>45614</v>
-      </c>
-      <c r="H371">
-        <v>45617</v>
-      </c>
-      <c r="I371" t="s">
+      <c r="J371" s="22" t="s">
         <v>1605</v>
       </c>
-      <c r="J371" t="s">
-        <v>1606</v>
-      </c>
-      <c r="K371">
-        <v>1</v>
-      </c>
-      <c r="L371">
+      <c r="K371" s="22">
+        <v>1</v>
+      </c>
+      <c r="L371" s="22">
         <v>35.1</v>
       </c>
-      <c r="M371">
-        <v>1</v>
-      </c>
-      <c r="N371" t="s">
+      <c r="M371" s="22">
+        <v>1</v>
+      </c>
+      <c r="N371" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O371">
+      <c r="O371" s="22">
         <v>125517</v>
       </c>
-      <c r="P371">
+      <c r="P371" s="22">
         <v>125517</v>
       </c>
       <c r="Q371" s="2">
         <v>45593</v>
       </c>
-      <c r="R371" t="s">
+      <c r="R371" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S371" t="s">
+      <c r="S371" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="U371" t="s">
+      <c r="U371" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="V371" t="s">
-        <v>1607</v>
-      </c>
-      <c r="X371">
+      <c r="V371" s="22" t="s">
+        <v>1606</v>
+      </c>
+      <c r="X371" s="22">
         <v>4</v>
       </c>
-      <c r="Y371" t="s">
+      <c r="Y371" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB371" t="s">
+      <c r="AB371" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AC371">
-        <v>110</v>
-      </c>
-      <c r="AD371">
-        <v>110</v>
-      </c>
-      <c r="AE371">
+      <c r="AC371" s="22">
+        <v>110</v>
+      </c>
+      <c r="AD371" s="22">
+        <v>110</v>
+      </c>
+      <c r="AE371" s="22">
         <v>92564</v>
       </c>
-      <c r="AF371">
+      <c r="AF371" s="22">
         <v>92564</v>
       </c>
-      <c r="AG371">
-        <v>1</v>
-      </c>
-      <c r="AH371">
-        <v>1</v>
-      </c>
-      <c r="AI371">
-        <v>1</v>
-      </c>
-      <c r="AJ371">
+      <c r="AG371" s="22">
+        <v>1</v>
+      </c>
+      <c r="AH371" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI371" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ371" s="22">
         <v>101</v>
       </c>
-      <c r="AK371">
-        <v>0</v>
-      </c>
-      <c r="AL371">
-        <v>0</v>
-      </c>
-      <c r="AM371">
-        <v>0</v>
-      </c>
-      <c r="AN371">
-        <v>0</v>
-      </c>
-      <c r="AP371">
+      <c r="AK371" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL371" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM371" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN371" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP371" s="22">
         <v>163</v>
       </c>
-      <c r="AQ371" t="s">
+      <c r="AQ371" s="22" t="s">
         <v>120</v>
       </c>
       <c r="AR371" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AS371" t="s">
-        <v>1608</v>
-      </c>
-      <c r="AT371">
+      <c r="AS371" s="22" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AT371" s="22">
         <v>952</v>
       </c>
-      <c r="AU371" t="s">
+      <c r="AU371" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AV371">
-        <v>0</v>
-      </c>
-      <c r="AW371" t="s">
+      <c r="AV371" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW371" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AX371">
+      <c r="AX371" s="22">
         <v>11</v>
       </c>
-      <c r="AY371" t="s">
+      <c r="AY371" s="22" t="s">
         <v>123</v>
       </c>
       <c r="AZ371" s="4">
@@ -66274,142 +66395,142 @@
       </c>
     </row>
     <row r="372" spans="1:52" ht="12.75" customHeight="1">
-      <c r="A372">
+      <c r="A372" s="22">
         <v>300</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="22" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C372" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D372" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E372" s="22" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F372" s="22" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G372" s="22">
+        <v>45614</v>
+      </c>
+      <c r="H372" s="22">
+        <v>45617</v>
+      </c>
+      <c r="I372" s="22" t="s">
         <v>1609</v>
       </c>
-      <c r="C372" t="s">
-        <v>53</v>
-      </c>
-      <c r="D372" t="s">
-        <v>54</v>
-      </c>
-      <c r="E372" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F372" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G372">
-        <v>45614</v>
-      </c>
-      <c r="H372">
-        <v>45617</v>
-      </c>
-      <c r="I372" t="s">
-        <v>1610</v>
-      </c>
-      <c r="J372" t="s">
+      <c r="J372" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="K372">
-        <v>1</v>
-      </c>
-      <c r="L372">
+      <c r="K372" s="22">
+        <v>1</v>
+      </c>
+      <c r="L372" s="22">
         <v>33.5</v>
       </c>
-      <c r="M372">
-        <v>1</v>
-      </c>
-      <c r="N372" t="s">
+      <c r="M372" s="22">
+        <v>1</v>
+      </c>
+      <c r="N372" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="O372">
+      <c r="O372" s="22">
         <v>119918</v>
       </c>
-      <c r="P372">
+      <c r="P372" s="22">
         <v>119918</v>
       </c>
       <c r="Q372" s="2">
         <v>45593</v>
       </c>
-      <c r="R372" t="s">
+      <c r="R372" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S372" t="s">
+      <c r="S372" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="U372" t="s">
+      <c r="U372" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="V372" t="s">
-        <v>1607</v>
-      </c>
-      <c r="X372">
+      <c r="V372" s="22" t="s">
+        <v>1606</v>
+      </c>
+      <c r="X372" s="22">
         <v>4</v>
       </c>
-      <c r="Y372" t="s">
+      <c r="Y372" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AB372" t="s">
+      <c r="AB372" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AC372">
-        <v>110</v>
-      </c>
-      <c r="AD372">
-        <v>110</v>
-      </c>
-      <c r="AE372">
+      <c r="AC372" s="22">
+        <v>110</v>
+      </c>
+      <c r="AD372" s="22">
+        <v>110</v>
+      </c>
+      <c r="AE372" s="22">
         <v>88489</v>
       </c>
-      <c r="AF372">
+      <c r="AF372" s="22">
         <v>88489</v>
       </c>
-      <c r="AG372">
-        <v>1</v>
-      </c>
-      <c r="AH372">
-        <v>1</v>
-      </c>
-      <c r="AI372">
-        <v>1</v>
-      </c>
-      <c r="AJ372">
+      <c r="AG372" s="22">
+        <v>1</v>
+      </c>
+      <c r="AH372" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI372" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ372" s="22">
         <v>101</v>
       </c>
-      <c r="AK372">
-        <v>0</v>
-      </c>
-      <c r="AL372">
-        <v>0</v>
-      </c>
-      <c r="AM372">
-        <v>0</v>
-      </c>
-      <c r="AN372">
-        <v>0</v>
-      </c>
-      <c r="AP372">
+      <c r="AK372" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL372" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM372" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN372" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP372" s="22">
         <v>163</v>
       </c>
-      <c r="AQ372" t="s">
+      <c r="AQ372" s="22" t="s">
         <v>120</v>
       </c>
       <c r="AR372" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="AS372" t="s">
-        <v>1608</v>
-      </c>
-      <c r="AT372">
+      <c r="AS372" s="22" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AT372" s="22">
         <v>952</v>
       </c>
-      <c r="AU372" t="s">
+      <c r="AU372" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AV372">
-        <v>0</v>
-      </c>
-      <c r="AW372" t="s">
+      <c r="AV372" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW372" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AX372">
+      <c r="AX372" s="22">
         <v>11</v>
       </c>
-      <c r="AY372" t="s">
+      <c r="AY372" s="22" t="s">
         <v>123</v>
       </c>
       <c r="AZ372" s="4">
@@ -66417,44 +66538,1131 @@
       </c>
     </row>
     <row r="373" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q373" s="2"/>
-      <c r="AR373" s="4"/>
-      <c r="AZ373" s="4"/>
+      <c r="A373">
+        <v>444</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C373" t="s">
+        <v>53</v>
+      </c>
+      <c r="D373" t="s">
+        <v>54</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1611</v>
+      </c>
+      <c r="G373">
+        <v>45623</v>
+      </c>
+      <c r="H373">
+        <v>45628</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J373" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K373">
+        <v>4</v>
+      </c>
+      <c r="L373">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M373">
+        <v>4</v>
+      </c>
+      <c r="N373" t="s">
+        <v>59</v>
+      </c>
+      <c r="O373">
+        <v>47500</v>
+      </c>
+      <c r="P373">
+        <v>190000</v>
+      </c>
+      <c r="Q373" s="2">
+        <v>45601</v>
+      </c>
+      <c r="R373" t="s">
+        <v>60</v>
+      </c>
+      <c r="S373" t="s">
+        <v>61</v>
+      </c>
+      <c r="U373" t="s">
+        <v>62</v>
+      </c>
+      <c r="V373" t="s">
+        <v>1614</v>
+      </c>
+      <c r="X373">
+        <v>4</v>
+      </c>
+      <c r="Y373" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z373" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC373">
+        <v>110</v>
+      </c>
+      <c r="AD373">
+        <v>110</v>
+      </c>
+      <c r="AE373">
+        <v>29591</v>
+      </c>
+      <c r="AF373">
+        <v>118364</v>
+      </c>
+      <c r="AG373">
+        <v>1</v>
+      </c>
+      <c r="AH373">
+        <v>1</v>
+      </c>
+      <c r="AI373">
+        <v>1</v>
+      </c>
+      <c r="AJ373">
+        <v>101</v>
+      </c>
+      <c r="AK373">
+        <v>0</v>
+      </c>
+      <c r="AL373">
+        <v>0</v>
+      </c>
+      <c r="AM373">
+        <v>0</v>
+      </c>
+      <c r="AN373">
+        <v>0</v>
+      </c>
+      <c r="AP373">
+        <v>4</v>
+      </c>
+      <c r="AQ373" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR373" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AS373" t="s">
+        <v>1615</v>
+      </c>
+      <c r="AT373">
+        <v>952</v>
+      </c>
+      <c r="AU373" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV373">
+        <v>0</v>
+      </c>
+      <c r="AW373" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX373">
+        <v>12</v>
+      </c>
+      <c r="AY373" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ373" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="374" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q374" s="2"/>
-      <c r="AR374" s="4"/>
-      <c r="AZ374" s="4"/>
+      <c r="A374">
+        <v>404</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C374" t="s">
+        <v>53</v>
+      </c>
+      <c r="D374" t="s">
+        <v>54</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G374">
+        <v>45616</v>
+      </c>
+      <c r="H374">
+        <v>45621</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1620</v>
+      </c>
+      <c r="K374">
+        <v>1</v>
+      </c>
+      <c r="L374">
+        <v>3</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="N374" t="s">
+        <v>59</v>
+      </c>
+      <c r="O374">
+        <v>33000</v>
+      </c>
+      <c r="P374">
+        <v>33000</v>
+      </c>
+      <c r="Q374" s="2">
+        <v>45601</v>
+      </c>
+      <c r="R374" t="s">
+        <v>60</v>
+      </c>
+      <c r="S374" t="s">
+        <v>61</v>
+      </c>
+      <c r="U374" t="s">
+        <v>62</v>
+      </c>
+      <c r="V374" t="s">
+        <v>1621</v>
+      </c>
+      <c r="X374">
+        <v>4</v>
+      </c>
+      <c r="Y374" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC374">
+        <v>110</v>
+      </c>
+      <c r="AD374">
+        <v>110</v>
+      </c>
+      <c r="AE374">
+        <v>26564</v>
+      </c>
+      <c r="AF374">
+        <v>26564</v>
+      </c>
+      <c r="AG374">
+        <v>1</v>
+      </c>
+      <c r="AH374">
+        <v>1</v>
+      </c>
+      <c r="AI374">
+        <v>1</v>
+      </c>
+      <c r="AJ374">
+        <v>101</v>
+      </c>
+      <c r="AK374">
+        <v>0</v>
+      </c>
+      <c r="AL374">
+        <v>0</v>
+      </c>
+      <c r="AM374">
+        <v>0</v>
+      </c>
+      <c r="AN374">
+        <v>0</v>
+      </c>
+      <c r="AP374">
+        <v>46</v>
+      </c>
+      <c r="AQ374" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR374" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AS374" t="s">
+        <v>1622</v>
+      </c>
+      <c r="AT374">
+        <v>952</v>
+      </c>
+      <c r="AU374" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV374">
+        <v>0</v>
+      </c>
+      <c r="AW374" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX374">
+        <v>29</v>
+      </c>
+      <c r="AY374" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ374" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="375" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q375" s="2"/>
-      <c r="AR375" s="4"/>
-      <c r="AZ375" s="4"/>
+      <c r="A375">
+        <v>624</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C375" t="s">
+        <v>53</v>
+      </c>
+      <c r="D375" t="s">
+        <v>54</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G375">
+        <v>45705</v>
+      </c>
+      <c r="H375">
+        <v>45708</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K375">
+        <v>1</v>
+      </c>
+      <c r="L375">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="M375">
+        <v>1</v>
+      </c>
+      <c r="N375" t="s">
+        <v>59</v>
+      </c>
+      <c r="O375">
+        <v>101920</v>
+      </c>
+      <c r="P375">
+        <v>101920</v>
+      </c>
+      <c r="Q375" s="2">
+        <v>45607</v>
+      </c>
+      <c r="R375" t="s">
+        <v>60</v>
+      </c>
+      <c r="S375" t="s">
+        <v>61</v>
+      </c>
+      <c r="U375" t="s">
+        <v>62</v>
+      </c>
+      <c r="V375" t="s">
+        <v>1627</v>
+      </c>
+      <c r="X375">
+        <v>4</v>
+      </c>
+      <c r="Y375" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC375">
+        <v>110</v>
+      </c>
+      <c r="AD375">
+        <v>110</v>
+      </c>
+      <c r="AE375">
+        <v>62502</v>
+      </c>
+      <c r="AF375">
+        <v>62502</v>
+      </c>
+      <c r="AG375">
+        <v>1</v>
+      </c>
+      <c r="AH375">
+        <v>1</v>
+      </c>
+      <c r="AI375">
+        <v>1</v>
+      </c>
+      <c r="AJ375">
+        <v>101</v>
+      </c>
+      <c r="AK375">
+        <v>0</v>
+      </c>
+      <c r="AL375">
+        <v>0</v>
+      </c>
+      <c r="AM375">
+        <v>0</v>
+      </c>
+      <c r="AN375">
+        <v>0</v>
+      </c>
+      <c r="AP375">
+        <v>52</v>
+      </c>
+      <c r="AQ375" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR375" s="24"/>
+      <c r="AS375" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AT375">
+        <v>952</v>
+      </c>
+      <c r="AU375" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV375">
+        <v>0</v>
+      </c>
+      <c r="AW375" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX375">
+        <v>11</v>
+      </c>
+      <c r="AY375" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ375" s="24"/>
     </row>
     <row r="376" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q376" s="2"/>
-      <c r="AR376" s="4"/>
-      <c r="AZ376" s="4"/>
+      <c r="A376">
+        <v>625</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C376" t="s">
+        <v>53</v>
+      </c>
+      <c r="D376" t="s">
+        <v>54</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G376">
+        <v>45705</v>
+      </c>
+      <c r="H376">
+        <v>45708</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K376">
+        <v>1</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376" t="s">
+        <v>59</v>
+      </c>
+      <c r="O376">
+        <v>24500</v>
+      </c>
+      <c r="P376">
+        <v>24500</v>
+      </c>
+      <c r="Q376" s="2">
+        <v>45607</v>
+      </c>
+      <c r="R376" t="s">
+        <v>60</v>
+      </c>
+      <c r="S376" t="s">
+        <v>61</v>
+      </c>
+      <c r="U376" t="s">
+        <v>62</v>
+      </c>
+      <c r="V376" t="s">
+        <v>1627</v>
+      </c>
+      <c r="X376">
+        <v>4</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC376">
+        <v>110</v>
+      </c>
+      <c r="AD376">
+        <v>110</v>
+      </c>
+      <c r="AE376">
+        <v>11994</v>
+      </c>
+      <c r="AF376">
+        <v>11994</v>
+      </c>
+      <c r="AG376">
+        <v>1</v>
+      </c>
+      <c r="AH376">
+        <v>1</v>
+      </c>
+      <c r="AI376">
+        <v>1</v>
+      </c>
+      <c r="AJ376">
+        <v>101</v>
+      </c>
+      <c r="AK376">
+        <v>0</v>
+      </c>
+      <c r="AL376">
+        <v>0</v>
+      </c>
+      <c r="AM376">
+        <v>0</v>
+      </c>
+      <c r="AN376">
+        <v>0</v>
+      </c>
+      <c r="AP376">
+        <v>52</v>
+      </c>
+      <c r="AQ376" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR376" s="24"/>
+      <c r="AS376" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AT376">
+        <v>952</v>
+      </c>
+      <c r="AU376" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV376">
+        <v>0</v>
+      </c>
+      <c r="AW376" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX376">
+        <v>13</v>
+      </c>
+      <c r="AY376" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ376" s="24"/>
     </row>
     <row r="377" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q377" s="2"/>
-      <c r="AR377" s="4"/>
-      <c r="AZ377" s="4"/>
+      <c r="A377">
+        <v>626</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C377" t="s">
+        <v>53</v>
+      </c>
+      <c r="D377" t="s">
+        <v>54</v>
+      </c>
+      <c r="E377" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G377">
+        <v>45705</v>
+      </c>
+      <c r="H377">
+        <v>45708</v>
+      </c>
+      <c r="I377" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J377" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K377">
+        <v>2</v>
+      </c>
+      <c r="L377">
+        <v>19.8</v>
+      </c>
+      <c r="M377">
+        <v>2</v>
+      </c>
+      <c r="N377" t="s">
+        <v>59</v>
+      </c>
+      <c r="O377">
+        <v>44550</v>
+      </c>
+      <c r="P377">
+        <v>89100</v>
+      </c>
+      <c r="Q377" s="2">
+        <v>45607</v>
+      </c>
+      <c r="R377" t="s">
+        <v>60</v>
+      </c>
+      <c r="S377" t="s">
+        <v>61</v>
+      </c>
+      <c r="U377" t="s">
+        <v>62</v>
+      </c>
+      <c r="V377" t="s">
+        <v>1627</v>
+      </c>
+      <c r="X377">
+        <v>4</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC377">
+        <v>110</v>
+      </c>
+      <c r="AD377">
+        <v>110</v>
+      </c>
+      <c r="AE377">
+        <v>24785</v>
+      </c>
+      <c r="AF377">
+        <v>49570</v>
+      </c>
+      <c r="AG377">
+        <v>1</v>
+      </c>
+      <c r="AH377">
+        <v>1</v>
+      </c>
+      <c r="AI377">
+        <v>1</v>
+      </c>
+      <c r="AJ377">
+        <v>101</v>
+      </c>
+      <c r="AK377">
+        <v>0</v>
+      </c>
+      <c r="AL377">
+        <v>0</v>
+      </c>
+      <c r="AM377">
+        <v>0</v>
+      </c>
+      <c r="AN377">
+        <v>0</v>
+      </c>
+      <c r="AP377">
+        <v>127</v>
+      </c>
+      <c r="AQ377" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR377" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AS377" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AT377">
+        <v>952</v>
+      </c>
+      <c r="AU377" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV377">
+        <v>0</v>
+      </c>
+      <c r="AW377" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX377">
+        <v>12</v>
+      </c>
+      <c r="AY377" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ377" s="24"/>
     </row>
     <row r="378" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q378" s="2"/>
-      <c r="AR378" s="4"/>
-      <c r="AZ378" s="4"/>
+      <c r="A378">
+        <v>627</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C378" t="s">
+        <v>53</v>
+      </c>
+      <c r="D378" t="s">
+        <v>54</v>
+      </c>
+      <c r="E378" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G378">
+        <v>45705</v>
+      </c>
+      <c r="H378">
+        <v>45708</v>
+      </c>
+      <c r="I378" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J378" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>7.4</v>
+      </c>
+      <c r="M378">
+        <v>2</v>
+      </c>
+      <c r="N378" t="s">
+        <v>59</v>
+      </c>
+      <c r="O378">
+        <v>108000</v>
+      </c>
+      <c r="P378">
+        <v>108000</v>
+      </c>
+      <c r="Q378" s="2">
+        <v>45607</v>
+      </c>
+      <c r="R378" t="s">
+        <v>60</v>
+      </c>
+      <c r="S378" t="s">
+        <v>61</v>
+      </c>
+      <c r="U378" t="s">
+        <v>62</v>
+      </c>
+      <c r="V378" t="s">
+        <v>1627</v>
+      </c>
+      <c r="X378">
+        <v>4</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC378">
+        <v>110</v>
+      </c>
+      <c r="AD378">
+        <v>110</v>
+      </c>
+      <c r="AE378">
+        <v>78399</v>
+      </c>
+      <c r="AF378">
+        <v>78399</v>
+      </c>
+      <c r="AG378">
+        <v>1</v>
+      </c>
+      <c r="AH378">
+        <v>1</v>
+      </c>
+      <c r="AI378">
+        <v>1</v>
+      </c>
+      <c r="AJ378">
+        <v>101</v>
+      </c>
+      <c r="AK378">
+        <v>0</v>
+      </c>
+      <c r="AL378">
+        <v>0</v>
+      </c>
+      <c r="AM378">
+        <v>0</v>
+      </c>
+      <c r="AN378">
+        <v>0</v>
+      </c>
+      <c r="AP378">
+        <v>64</v>
+      </c>
+      <c r="AQ378" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR378" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AS378" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AT378">
+        <v>952</v>
+      </c>
+      <c r="AU378" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV378">
+        <v>1</v>
+      </c>
+      <c r="AW378" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX378">
+        <v>22</v>
+      </c>
+      <c r="AY378" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ378" s="24"/>
     </row>
     <row r="379" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q379" s="2"/>
-      <c r="AR379" s="4"/>
-      <c r="AZ379" s="4"/>
+      <c r="A379">
+        <v>443</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C379" t="s">
+        <v>53</v>
+      </c>
+      <c r="D379" t="s">
+        <v>54</v>
+      </c>
+      <c r="E379" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G379">
+        <v>45621</v>
+      </c>
+      <c r="H379">
+        <v>45624</v>
+      </c>
+      <c r="I379" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J379" t="s">
+        <v>1642</v>
+      </c>
+      <c r="K379">
+        <v>1</v>
+      </c>
+      <c r="L379">
+        <v>3.2</v>
+      </c>
+      <c r="M379">
+        <v>2</v>
+      </c>
+      <c r="N379" t="s">
+        <v>59</v>
+      </c>
+      <c r="O379">
+        <v>59000</v>
+      </c>
+      <c r="P379">
+        <v>59000</v>
+      </c>
+      <c r="Q379" s="2">
+        <v>45607</v>
+      </c>
+      <c r="R379" t="s">
+        <v>60</v>
+      </c>
+      <c r="S379" t="s">
+        <v>61</v>
+      </c>
+      <c r="U379" t="s">
+        <v>62</v>
+      </c>
+      <c r="V379" t="s">
+        <v>1643</v>
+      </c>
+      <c r="X379">
+        <v>4</v>
+      </c>
+      <c r="Y379" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB379" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC379">
+        <v>110</v>
+      </c>
+      <c r="AD379">
+        <v>110</v>
+      </c>
+      <c r="AE379">
+        <v>46894</v>
+      </c>
+      <c r="AF379">
+        <v>46894</v>
+      </c>
+      <c r="AG379">
+        <v>1</v>
+      </c>
+      <c r="AH379">
+        <v>1</v>
+      </c>
+      <c r="AI379">
+        <v>1</v>
+      </c>
+      <c r="AJ379">
+        <v>101</v>
+      </c>
+      <c r="AK379">
+        <v>0</v>
+      </c>
+      <c r="AL379">
+        <v>0</v>
+      </c>
+      <c r="AM379">
+        <v>0</v>
+      </c>
+      <c r="AN379">
+        <v>0</v>
+      </c>
+      <c r="AP379">
+        <v>142</v>
+      </c>
+      <c r="AQ379" t="s">
+        <v>1566</v>
+      </c>
+      <c r="AR379" s="24"/>
+      <c r="AS379" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AT379">
+        <v>952</v>
+      </c>
+      <c r="AU379" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV379">
+        <v>1</v>
+      </c>
+      <c r="AW379" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX379">
+        <v>22</v>
+      </c>
+      <c r="AY379" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ379" s="24"/>
     </row>
     <row r="380" spans="1:52" ht="12.75" customHeight="1">
-      <c r="Q380" s="2"/>
-      <c r="AR380" s="4"/>
-      <c r="AZ380" s="4"/>
+      <c r="A380">
+        <v>444</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C380" t="s">
+        <v>53</v>
+      </c>
+      <c r="D380" t="s">
+        <v>54</v>
+      </c>
+      <c r="E380" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G380">
+        <v>45621</v>
+      </c>
+      <c r="H380">
+        <v>45624</v>
+      </c>
+      <c r="I380" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J380" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K380">
+        <v>4</v>
+      </c>
+      <c r="L380">
+        <v>19.2</v>
+      </c>
+      <c r="M380">
+        <v>2</v>
+      </c>
+      <c r="N380" t="s">
+        <v>59</v>
+      </c>
+      <c r="O380">
+        <v>20500</v>
+      </c>
+      <c r="P380">
+        <v>82000</v>
+      </c>
+      <c r="Q380" s="2">
+        <v>45607</v>
+      </c>
+      <c r="R380" t="s">
+        <v>60</v>
+      </c>
+      <c r="S380" t="s">
+        <v>61</v>
+      </c>
+      <c r="U380" t="s">
+        <v>62</v>
+      </c>
+      <c r="V380" t="s">
+        <v>1643</v>
+      </c>
+      <c r="X380">
+        <v>4</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC380">
+        <v>110</v>
+      </c>
+      <c r="AD380">
+        <v>110</v>
+      </c>
+      <c r="AE380">
+        <v>13142</v>
+      </c>
+      <c r="AF380">
+        <v>52568</v>
+      </c>
+      <c r="AG380">
+        <v>1</v>
+      </c>
+      <c r="AH380">
+        <v>1</v>
+      </c>
+      <c r="AI380">
+        <v>1</v>
+      </c>
+      <c r="AJ380">
+        <v>101</v>
+      </c>
+      <c r="AK380">
+        <v>0</v>
+      </c>
+      <c r="AL380">
+        <v>0</v>
+      </c>
+      <c r="AM380">
+        <v>0</v>
+      </c>
+      <c r="AN380">
+        <v>0</v>
+      </c>
+      <c r="AP380">
+        <v>71</v>
+      </c>
+      <c r="AQ380" t="s">
+        <v>516</v>
+      </c>
+      <c r="AR380" s="24"/>
+      <c r="AS380" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AT380">
+        <v>952</v>
+      </c>
+      <c r="AU380" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV380">
+        <v>0</v>
+      </c>
+      <c r="AW380" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX380">
+        <v>12</v>
+      </c>
+      <c r="AY380" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ380" s="24"/>
     </row>
     <row r="381" spans="1:52" ht="12.75" customHeight="1">
       <c r="Q381" s="2"/>
@@ -68720,26 +69928,6 @@
       <c r="Q833" s="2"/>
       <c r="AR833" s="4"/>
       <c r="AZ833" s="4"/>
-    </row>
-    <row r="834" spans="17:52" ht="12.75" customHeight="1">
-      <c r="Q834" s="2"/>
-      <c r="AR834" s="4"/>
-      <c r="AZ834" s="4"/>
-    </row>
-    <row r="835" spans="17:52" ht="12.75" customHeight="1">
-      <c r="Q835" s="2"/>
-      <c r="AR835" s="4"/>
-      <c r="AZ835" s="4"/>
-    </row>
-    <row r="836" spans="17:52" ht="12.75" customHeight="1">
-      <c r="Q836" s="2"/>
-      <c r="AR836" s="4"/>
-      <c r="AZ836" s="4"/>
-    </row>
-    <row r="837" spans="17:52" ht="12.75" customHeight="1">
-      <c r="Q837" s="2"/>
-      <c r="AR837" s="4"/>
-      <c r="AZ837" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10"/>
